--- a/TEST_CSV_UTIL_9.xlsx
+++ b/TEST_CSV_UTIL_9.xlsx
@@ -583,12 +583,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021/06</t>
+          <t>2021/06/01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -617,39 +617,39 @@
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2">
-        <f>CIQ("TSE:"&amp;F31, "IQ_LASTSALEPRICE", G31)</f>
+        <f>CIQ("TSE:"&amp;F2, "IQ_LASTSALEPRICE", G2)</f>
         <v/>
       </c>
       <c r="P2">
-        <f>CIQ("TSE:"&amp;F31, "IQ_LASTSALEPRICE", G31)</f>
+        <f>CIQ("TSE:"&amp;F2, "IQ_LASTSALEPRICE", G2)</f>
         <v/>
       </c>
       <c r="Q2">
-        <f>CIQ("TSE:"&amp;F31, "IQ_OPER_INC", IQ_LTM, G31)</f>
+        <f>CIQ("TSE:"&amp;F2, "IQ_OPER_INC", IQ_LTM, G2)</f>
         <v/>
       </c>
       <c r="R2">
-        <f>CIQ("TSE:"&amp;F31, "IQ_OPER_INC", IQ_LTM, G31)</f>
+        <f>CIQ("TSE:"&amp;F2, "IQ_OPER_INC", IQ_LTM, G2)</f>
         <v/>
       </c>
       <c r="S2">
-        <f>CIQ("TSE:"&amp;F31, "IQ_BASIC_EPS_INCL", IQ_LTM, G31)</f>
+        <f>CIQ("TSE:"&amp;F2, "IQ_BASIC_EPS_INCL", IQ_LTM, G2)</f>
         <v/>
       </c>
       <c r="T2">
-        <f>CIQ("TSE:"&amp;F31, "IQ_BASIC_EPS_INCL", IQ_LTM, G31)</f>
+        <f>CIQ("TSE:"&amp;F2, "IQ_BASIC_EPS_INCL", IQ_LTM, G2)</f>
         <v/>
       </c>
       <c r="U2">
-        <f>(G31-F31)/365</f>
+        <f>(G2-F2)/365</f>
         <v/>
       </c>
       <c r="V2">
-        <f>(Q31/P31)^(1/T31)-1</f>
+        <f>(Q2/P2)^(1/T2)-1</f>
         <v/>
       </c>
       <c r="W2">
-        <f>(S31/R31)^(1/T31)-1</f>
+        <f>(S2/R2)^(1/T2)-1</f>
         <v/>
       </c>
       <c r="X2" t="inlineStr"/>
@@ -682,12 +682,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2016/11</t>
+          <t>2016/11/01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -720,39 +720,39 @@
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3">
-        <f>CIQ("TSE:"&amp;F32, "IQ_LASTSALEPRICE", G32)</f>
+        <f>CIQ("TSE:"&amp;F3, "IQ_LASTSALEPRICE", G3)</f>
         <v/>
       </c>
       <c r="P3">
-        <f>CIQ("TSE:"&amp;F32, "IQ_LASTSALEPRICE", G32)</f>
+        <f>CIQ("TSE:"&amp;F3, "IQ_LASTSALEPRICE", G3)</f>
         <v/>
       </c>
       <c r="Q3">
-        <f>CIQ("TSE:"&amp;F32, "IQ_OPER_INC", IQ_LTM, G32)</f>
+        <f>CIQ("TSE:"&amp;F3, "IQ_OPER_INC", IQ_LTM, G3)</f>
         <v/>
       </c>
       <c r="R3">
-        <f>CIQ("TSE:"&amp;F32, "IQ_OPER_INC", IQ_LTM, G32)</f>
+        <f>CIQ("TSE:"&amp;F3, "IQ_OPER_INC", IQ_LTM, G3)</f>
         <v/>
       </c>
       <c r="S3">
-        <f>CIQ("TSE:"&amp;F32, "IQ_BASIC_EPS_INCL", IQ_LTM, G32)</f>
+        <f>CIQ("TSE:"&amp;F3, "IQ_BASIC_EPS_INCL", IQ_LTM, G3)</f>
         <v/>
       </c>
       <c r="T3">
-        <f>CIQ("TSE:"&amp;F32, "IQ_BASIC_EPS_INCL", IQ_LTM, G32)</f>
+        <f>CIQ("TSE:"&amp;F3, "IQ_BASIC_EPS_INCL", IQ_LTM, G3)</f>
         <v/>
       </c>
       <c r="U3">
-        <f>(G32-F32)/365</f>
+        <f>(G3-F3)/365</f>
         <v/>
       </c>
       <c r="V3">
-        <f>(Q32/P32)^(1/T32)-1</f>
+        <f>(Q3/P3)^(1/T3)-1</f>
         <v/>
       </c>
       <c r="W3">
-        <f>(S32/R32)^(1/T32)-1</f>
+        <f>(S3/R3)^(1/T3)-1</f>
         <v/>
       </c>
       <c r="X3" t="inlineStr"/>
@@ -785,12 +785,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2016/04</t>
+          <t>2016/04/01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2024/03</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -819,39 +819,39 @@
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4">
-        <f>CIQ("TSE:"&amp;F82, "IQ_LASTSALEPRICE", G82)</f>
+        <f>CIQ("TSE:"&amp;F4, "IQ_LASTSALEPRICE", G4)</f>
         <v/>
       </c>
       <c r="P4">
-        <f>CIQ("TSE:"&amp;F82, "IQ_LASTSALEPRICE", G82)</f>
+        <f>CIQ("TSE:"&amp;F4, "IQ_LASTSALEPRICE", G4)</f>
         <v/>
       </c>
       <c r="Q4">
-        <f>CIQ("TSE:"&amp;F82, "IQ_OPER_INC", IQ_LTM, G82)</f>
+        <f>CIQ("TSE:"&amp;F4, "IQ_OPER_INC", IQ_LTM, G4)</f>
         <v/>
       </c>
       <c r="R4">
-        <f>CIQ("TSE:"&amp;F82, "IQ_OPER_INC", IQ_LTM, G82)</f>
+        <f>CIQ("TSE:"&amp;F4, "IQ_OPER_INC", IQ_LTM, G4)</f>
         <v/>
       </c>
       <c r="S4">
-        <f>CIQ("TSE:"&amp;F82, "IQ_BASIC_EPS_INCL", IQ_LTM, G82)</f>
+        <f>CIQ("TSE:"&amp;F4, "IQ_BASIC_EPS_INCL", IQ_LTM, G4)</f>
         <v/>
       </c>
       <c r="T4">
-        <f>CIQ("TSE:"&amp;F82, "IQ_BASIC_EPS_INCL", IQ_LTM, G82)</f>
+        <f>CIQ("TSE:"&amp;F4, "IQ_BASIC_EPS_INCL", IQ_LTM, G4)</f>
         <v/>
       </c>
       <c r="U4">
-        <f>(G82-F82)/365</f>
+        <f>(G4-F4)/365</f>
         <v/>
       </c>
       <c r="V4">
-        <f>(Q82/P82)^(1/T82)-1</f>
+        <f>(Q4/P4)^(1/T4)-1</f>
         <v/>
       </c>
       <c r="W4">
-        <f>(S82/R82)^(1/T82)-1</f>
+        <f>(S4/R4)^(1/T4)-1</f>
         <v/>
       </c>
       <c r="X4" t="inlineStr"/>
@@ -884,12 +884,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2020/06</t>
+          <t>2020/06/01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -918,39 +918,39 @@
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5">
-        <f>CIQ("TSE:"&amp;F302, "IQ_LASTSALEPRICE", G302)</f>
+        <f>CIQ("TSE:"&amp;F5, "IQ_LASTSALEPRICE", G5)</f>
         <v/>
       </c>
       <c r="P5">
-        <f>CIQ("TSE:"&amp;F302, "IQ_LASTSALEPRICE", G302)</f>
+        <f>CIQ("TSE:"&amp;F5, "IQ_LASTSALEPRICE", G5)</f>
         <v/>
       </c>
       <c r="Q5">
-        <f>CIQ("TSE:"&amp;F302, "IQ_OPER_INC", IQ_LTM, G302)</f>
+        <f>CIQ("TSE:"&amp;F5, "IQ_OPER_INC", IQ_LTM, G5)</f>
         <v/>
       </c>
       <c r="R5">
-        <f>CIQ("TSE:"&amp;F302, "IQ_OPER_INC", IQ_LTM, G302)</f>
+        <f>CIQ("TSE:"&amp;F5, "IQ_OPER_INC", IQ_LTM, G5)</f>
         <v/>
       </c>
       <c r="S5">
-        <f>CIQ("TSE:"&amp;F302, "IQ_BASIC_EPS_INCL", IQ_LTM, G302)</f>
+        <f>CIQ("TSE:"&amp;F5, "IQ_BASIC_EPS_INCL", IQ_LTM, G5)</f>
         <v/>
       </c>
       <c r="T5">
-        <f>CIQ("TSE:"&amp;F302, "IQ_BASIC_EPS_INCL", IQ_LTM, G302)</f>
+        <f>CIQ("TSE:"&amp;F5, "IQ_BASIC_EPS_INCL", IQ_LTM, G5)</f>
         <v/>
       </c>
       <c r="U5">
-        <f>(G302-F302)/365</f>
+        <f>(G5-F5)/365</f>
         <v/>
       </c>
       <c r="V5">
-        <f>(Q302/P302)^(1/T302)-1</f>
+        <f>(Q5/P5)^(1/T5)-1</f>
         <v/>
       </c>
       <c r="W5">
-        <f>(S302/R302)^(1/T302)-1</f>
+        <f>(S5/R5)^(1/T5)-1</f>
         <v/>
       </c>
       <c r="X5" t="inlineStr"/>
@@ -983,12 +983,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2019/06</t>
+          <t>2019/06/01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1017,39 +1017,39 @@
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6">
-        <f>CIQ("TSE:"&amp;F339, "IQ_LASTSALEPRICE", G339)</f>
+        <f>CIQ("TSE:"&amp;F6, "IQ_LASTSALEPRICE", G6)</f>
         <v/>
       </c>
       <c r="P6">
-        <f>CIQ("TSE:"&amp;F339, "IQ_LASTSALEPRICE", G339)</f>
+        <f>CIQ("TSE:"&amp;F6, "IQ_LASTSALEPRICE", G6)</f>
         <v/>
       </c>
       <c r="Q6">
-        <f>CIQ("TSE:"&amp;F339, "IQ_OPER_INC", IQ_LTM, G339)</f>
+        <f>CIQ("TSE:"&amp;F6, "IQ_OPER_INC", IQ_LTM, G6)</f>
         <v/>
       </c>
       <c r="R6">
-        <f>CIQ("TSE:"&amp;F339, "IQ_OPER_INC", IQ_LTM, G339)</f>
+        <f>CIQ("TSE:"&amp;F6, "IQ_OPER_INC", IQ_LTM, G6)</f>
         <v/>
       </c>
       <c r="S6">
-        <f>CIQ("TSE:"&amp;F339, "IQ_BASIC_EPS_INCL", IQ_LTM, G339)</f>
+        <f>CIQ("TSE:"&amp;F6, "IQ_BASIC_EPS_INCL", IQ_LTM, G6)</f>
         <v/>
       </c>
       <c r="T6">
-        <f>CIQ("TSE:"&amp;F339, "IQ_BASIC_EPS_INCL", IQ_LTM, G339)</f>
+        <f>CIQ("TSE:"&amp;F6, "IQ_BASIC_EPS_INCL", IQ_LTM, G6)</f>
         <v/>
       </c>
       <c r="U6">
-        <f>(G339-F339)/365</f>
+        <f>(G6-F6)/365</f>
         <v/>
       </c>
       <c r="V6">
-        <f>(Q339/P339)^(1/T339)-1</f>
+        <f>(Q6/P6)^(1/T6)-1</f>
         <v/>
       </c>
       <c r="W6">
-        <f>(S339/R339)^(1/T339)-1</f>
+        <f>(S6/R6)^(1/T6)-1</f>
         <v/>
       </c>
       <c r="X6" t="inlineStr"/>
@@ -1082,12 +1082,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2012/10</t>
+          <t>2012/10/01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1116,39 +1116,39 @@
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7">
-        <f>CIQ("TSE:"&amp;F340, "IQ_LASTSALEPRICE", G340)</f>
+        <f>CIQ("TSE:"&amp;F7, "IQ_LASTSALEPRICE", G7)</f>
         <v/>
       </c>
       <c r="P7">
-        <f>CIQ("TSE:"&amp;F340, "IQ_LASTSALEPRICE", G340)</f>
+        <f>CIQ("TSE:"&amp;F7, "IQ_LASTSALEPRICE", G7)</f>
         <v/>
       </c>
       <c r="Q7">
-        <f>CIQ("TSE:"&amp;F340, "IQ_OPER_INC", IQ_LTM, G340)</f>
+        <f>CIQ("TSE:"&amp;F7, "IQ_OPER_INC", IQ_LTM, G7)</f>
         <v/>
       </c>
       <c r="R7">
-        <f>CIQ("TSE:"&amp;F340, "IQ_OPER_INC", IQ_LTM, G340)</f>
+        <f>CIQ("TSE:"&amp;F7, "IQ_OPER_INC", IQ_LTM, G7)</f>
         <v/>
       </c>
       <c r="S7">
-        <f>CIQ("TSE:"&amp;F340, "IQ_BASIC_EPS_INCL", IQ_LTM, G340)</f>
+        <f>CIQ("TSE:"&amp;F7, "IQ_BASIC_EPS_INCL", IQ_LTM, G7)</f>
         <v/>
       </c>
       <c r="T7">
-        <f>CIQ("TSE:"&amp;F340, "IQ_BASIC_EPS_INCL", IQ_LTM, G340)</f>
+        <f>CIQ("TSE:"&amp;F7, "IQ_BASIC_EPS_INCL", IQ_LTM, G7)</f>
         <v/>
       </c>
       <c r="U7">
-        <f>(G340-F340)/365</f>
+        <f>(G7-F7)/365</f>
         <v/>
       </c>
       <c r="V7">
-        <f>(Q340/P340)^(1/T340)-1</f>
+        <f>(Q7/P7)^(1/T7)-1</f>
         <v/>
       </c>
       <c r="W7">
-        <f>(S340/R340)^(1/T340)-1</f>
+        <f>(S7/R7)^(1/T7)-1</f>
         <v/>
       </c>
       <c r="X7" t="inlineStr"/>
@@ -1181,12 +1181,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023/06</t>
+          <t>2023/06/01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1215,39 +1215,39 @@
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8">
-        <f>CIQ("TSE:"&amp;F526, "IQ_LASTSALEPRICE", G526)</f>
+        <f>CIQ("TSE:"&amp;F8, "IQ_LASTSALEPRICE", G8)</f>
         <v/>
       </c>
       <c r="P8">
-        <f>CIQ("TSE:"&amp;F526, "IQ_LASTSALEPRICE", G526)</f>
+        <f>CIQ("TSE:"&amp;F8, "IQ_LASTSALEPRICE", G8)</f>
         <v/>
       </c>
       <c r="Q8">
-        <f>CIQ("TSE:"&amp;F526, "IQ_OPER_INC", IQ_LTM, G526)</f>
+        <f>CIQ("TSE:"&amp;F8, "IQ_OPER_INC", IQ_LTM, G8)</f>
         <v/>
       </c>
       <c r="R8">
-        <f>CIQ("TSE:"&amp;F526, "IQ_OPER_INC", IQ_LTM, G526)</f>
+        <f>CIQ("TSE:"&amp;F8, "IQ_OPER_INC", IQ_LTM, G8)</f>
         <v/>
       </c>
       <c r="S8">
-        <f>CIQ("TSE:"&amp;F526, "IQ_BASIC_EPS_INCL", IQ_LTM, G526)</f>
+        <f>CIQ("TSE:"&amp;F8, "IQ_BASIC_EPS_INCL", IQ_LTM, G8)</f>
         <v/>
       </c>
       <c r="T8">
-        <f>CIQ("TSE:"&amp;F526, "IQ_BASIC_EPS_INCL", IQ_LTM, G526)</f>
+        <f>CIQ("TSE:"&amp;F8, "IQ_BASIC_EPS_INCL", IQ_LTM, G8)</f>
         <v/>
       </c>
       <c r="U8">
-        <f>(G526-F526)/365</f>
+        <f>(G8-F8)/365</f>
         <v/>
       </c>
       <c r="V8">
-        <f>(Q526/P526)^(1/T526)-1</f>
+        <f>(Q8/P8)^(1/T8)-1</f>
         <v/>
       </c>
       <c r="W8">
-        <f>(S526/R526)^(1/T526)-1</f>
+        <f>(S8/R8)^(1/T8)-1</f>
         <v/>
       </c>
       <c r="X8" t="inlineStr"/>
@@ -1280,12 +1280,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023/06</t>
+          <t>2023/06/01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1314,39 +1314,39 @@
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9">
-        <f>CIQ("TSE:"&amp;F569, "IQ_LASTSALEPRICE", G569)</f>
+        <f>CIQ("TSE:"&amp;F9, "IQ_LASTSALEPRICE", G9)</f>
         <v/>
       </c>
       <c r="P9">
-        <f>CIQ("TSE:"&amp;F569, "IQ_LASTSALEPRICE", G569)</f>
+        <f>CIQ("TSE:"&amp;F9, "IQ_LASTSALEPRICE", G9)</f>
         <v/>
       </c>
       <c r="Q9">
-        <f>CIQ("TSE:"&amp;F569, "IQ_OPER_INC", IQ_LTM, G569)</f>
+        <f>CIQ("TSE:"&amp;F9, "IQ_OPER_INC", IQ_LTM, G9)</f>
         <v/>
       </c>
       <c r="R9">
-        <f>CIQ("TSE:"&amp;F569, "IQ_OPER_INC", IQ_LTM, G569)</f>
+        <f>CIQ("TSE:"&amp;F9, "IQ_OPER_INC", IQ_LTM, G9)</f>
         <v/>
       </c>
       <c r="S9">
-        <f>CIQ("TSE:"&amp;F569, "IQ_BASIC_EPS_INCL", IQ_LTM, G569)</f>
+        <f>CIQ("TSE:"&amp;F9, "IQ_BASIC_EPS_INCL", IQ_LTM, G9)</f>
         <v/>
       </c>
       <c r="T9">
-        <f>CIQ("TSE:"&amp;F569, "IQ_BASIC_EPS_INCL", IQ_LTM, G569)</f>
+        <f>CIQ("TSE:"&amp;F9, "IQ_BASIC_EPS_INCL", IQ_LTM, G9)</f>
         <v/>
       </c>
       <c r="U9">
-        <f>(G569-F569)/365</f>
+        <f>(G9-F9)/365</f>
         <v/>
       </c>
       <c r="V9">
-        <f>(Q569/P569)^(1/T569)-1</f>
+        <f>(Q9/P9)^(1/T9)-1</f>
         <v/>
       </c>
       <c r="W9">
-        <f>(S569/R569)^(1/T569)-1</f>
+        <f>(S9/R9)^(1/T9)-1</f>
         <v/>
       </c>
       <c r="X9" t="inlineStr"/>
@@ -1379,12 +1379,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2019/04</t>
+          <t>2019/04/01</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2024/05</t>
+          <t>2024/05/01</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1417,39 +1417,39 @@
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10">
-        <f>CIQ("TSE:"&amp;F713, "IQ_LASTSALEPRICE", G713)</f>
+        <f>CIQ("TSE:"&amp;F10, "IQ_LASTSALEPRICE", G10)</f>
         <v/>
       </c>
       <c r="P10">
-        <f>CIQ("TSE:"&amp;F713, "IQ_LASTSALEPRICE", G713)</f>
+        <f>CIQ("TSE:"&amp;F10, "IQ_LASTSALEPRICE", G10)</f>
         <v/>
       </c>
       <c r="Q10">
-        <f>CIQ("TSE:"&amp;F713, "IQ_OPER_INC", IQ_LTM, G713)</f>
+        <f>CIQ("TSE:"&amp;F10, "IQ_OPER_INC", IQ_LTM, G10)</f>
         <v/>
       </c>
       <c r="R10">
-        <f>CIQ("TSE:"&amp;F713, "IQ_OPER_INC", IQ_LTM, G713)</f>
+        <f>CIQ("TSE:"&amp;F10, "IQ_OPER_INC", IQ_LTM, G10)</f>
         <v/>
       </c>
       <c r="S10">
-        <f>CIQ("TSE:"&amp;F713, "IQ_BASIC_EPS_INCL", IQ_LTM, G713)</f>
+        <f>CIQ("TSE:"&amp;F10, "IQ_BASIC_EPS_INCL", IQ_LTM, G10)</f>
         <v/>
       </c>
       <c r="T10">
-        <f>CIQ("TSE:"&amp;F713, "IQ_BASIC_EPS_INCL", IQ_LTM, G713)</f>
+        <f>CIQ("TSE:"&amp;F10, "IQ_BASIC_EPS_INCL", IQ_LTM, G10)</f>
         <v/>
       </c>
       <c r="U10">
-        <f>(G713-F713)/365</f>
+        <f>(G10-F10)/365</f>
         <v/>
       </c>
       <c r="V10">
-        <f>(Q713/P713)^(1/T713)-1</f>
+        <f>(Q10/P10)^(1/T10)-1</f>
         <v/>
       </c>
       <c r="W10">
-        <f>(S713/R713)^(1/T713)-1</f>
+        <f>(S10/R10)^(1/T10)-1</f>
         <v/>
       </c>
       <c r="X10" t="inlineStr"/>
@@ -1482,12 +1482,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2018/09</t>
+          <t>2018/09/01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2024/03</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1516,39 +1516,39 @@
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11">
-        <f>CIQ("TSE:"&amp;F741, "IQ_LASTSALEPRICE", G741)</f>
+        <f>CIQ("TSE:"&amp;F11, "IQ_LASTSALEPRICE", G11)</f>
         <v/>
       </c>
       <c r="P11">
-        <f>CIQ("TSE:"&amp;F741, "IQ_LASTSALEPRICE", G741)</f>
+        <f>CIQ("TSE:"&amp;F11, "IQ_LASTSALEPRICE", G11)</f>
         <v/>
       </c>
       <c r="Q11">
-        <f>CIQ("TSE:"&amp;F741, "IQ_OPER_INC", IQ_LTM, G741)</f>
+        <f>CIQ("TSE:"&amp;F11, "IQ_OPER_INC", IQ_LTM, G11)</f>
         <v/>
       </c>
       <c r="R11">
-        <f>CIQ("TSE:"&amp;F741, "IQ_OPER_INC", IQ_LTM, G741)</f>
+        <f>CIQ("TSE:"&amp;F11, "IQ_OPER_INC", IQ_LTM, G11)</f>
         <v/>
       </c>
       <c r="S11">
-        <f>CIQ("TSE:"&amp;F741, "IQ_BASIC_EPS_INCL", IQ_LTM, G741)</f>
+        <f>CIQ("TSE:"&amp;F11, "IQ_BASIC_EPS_INCL", IQ_LTM, G11)</f>
         <v/>
       </c>
       <c r="T11">
-        <f>CIQ("TSE:"&amp;F741, "IQ_BASIC_EPS_INCL", IQ_LTM, G741)</f>
+        <f>CIQ("TSE:"&amp;F11, "IQ_BASIC_EPS_INCL", IQ_LTM, G11)</f>
         <v/>
       </c>
       <c r="U11">
-        <f>(G741-F741)/365</f>
+        <f>(G11-F11)/365</f>
         <v/>
       </c>
       <c r="V11">
-        <f>(Q741/P741)^(1/T741)-1</f>
+        <f>(Q11/P11)^(1/T11)-1</f>
         <v/>
       </c>
       <c r="W11">
-        <f>(S741/R741)^(1/T741)-1</f>
+        <f>(S11/R11)^(1/T11)-1</f>
         <v/>
       </c>
       <c r="X11" t="inlineStr"/>
@@ -1581,12 +1581,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2010/06</t>
+          <t>2010/06/01</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12">
-        <f>CIQ("TSE:"&amp;F924, "IQ_LASTSALEPRICE", G924)</f>
+        <f>CIQ("TSE:"&amp;F12, "IQ_LASTSALEPRICE", G12)</f>
         <v/>
       </c>
       <c r="P12">
-        <f>CIQ("TSE:"&amp;F924, "IQ_LASTSALEPRICE", G924)</f>
+        <f>CIQ("TSE:"&amp;F12, "IQ_LASTSALEPRICE", G12)</f>
         <v/>
       </c>
       <c r="Q12">
-        <f>CIQ("TSE:"&amp;F924, "IQ_OPER_INC", IQ_LTM, G924)</f>
+        <f>CIQ("TSE:"&amp;F12, "IQ_OPER_INC", IQ_LTM, G12)</f>
         <v/>
       </c>
       <c r="R12">
-        <f>CIQ("TSE:"&amp;F924, "IQ_OPER_INC", IQ_LTM, G924)</f>
+        <f>CIQ("TSE:"&amp;F12, "IQ_OPER_INC", IQ_LTM, G12)</f>
         <v/>
       </c>
       <c r="S12">
-        <f>CIQ("TSE:"&amp;F924, "IQ_BASIC_EPS_INCL", IQ_LTM, G924)</f>
+        <f>CIQ("TSE:"&amp;F12, "IQ_BASIC_EPS_INCL", IQ_LTM, G12)</f>
         <v/>
       </c>
       <c r="T12">
-        <f>CIQ("TSE:"&amp;F924, "IQ_BASIC_EPS_INCL", IQ_LTM, G924)</f>
+        <f>CIQ("TSE:"&amp;F12, "IQ_BASIC_EPS_INCL", IQ_LTM, G12)</f>
         <v/>
       </c>
       <c r="U12">
-        <f>(G924-F924)/365</f>
+        <f>(G12-F12)/365</f>
         <v/>
       </c>
       <c r="V12">
-        <f>(Q924/P924)^(1/T924)-1</f>
+        <f>(Q12/P12)^(1/T12)-1</f>
         <v/>
       </c>
       <c r="W12">
-        <f>(S924/R924)^(1/T924)-1</f>
+        <f>(S12/R12)^(1/T12)-1</f>
         <v/>
       </c>
       <c r="X12" t="inlineStr"/>
@@ -1684,12 +1684,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2018/08</t>
+          <t>2018/08/01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2024/03</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1718,39 +1718,39 @@
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13">
-        <f>CIQ("TSE:"&amp;F979, "IQ_LASTSALEPRICE", G979)</f>
+        <f>CIQ("TSE:"&amp;F13, "IQ_LASTSALEPRICE", G13)</f>
         <v/>
       </c>
       <c r="P13">
-        <f>CIQ("TSE:"&amp;F979, "IQ_LASTSALEPRICE", G979)</f>
+        <f>CIQ("TSE:"&amp;F13, "IQ_LASTSALEPRICE", G13)</f>
         <v/>
       </c>
       <c r="Q13">
-        <f>CIQ("TSE:"&amp;F979, "IQ_OPER_INC", IQ_LTM, G979)</f>
+        <f>CIQ("TSE:"&amp;F13, "IQ_OPER_INC", IQ_LTM, G13)</f>
         <v/>
       </c>
       <c r="R13">
-        <f>CIQ("TSE:"&amp;F979, "IQ_OPER_INC", IQ_LTM, G979)</f>
+        <f>CIQ("TSE:"&amp;F13, "IQ_OPER_INC", IQ_LTM, G13)</f>
         <v/>
       </c>
       <c r="S13">
-        <f>CIQ("TSE:"&amp;F979, "IQ_BASIC_EPS_INCL", IQ_LTM, G979)</f>
+        <f>CIQ("TSE:"&amp;F13, "IQ_BASIC_EPS_INCL", IQ_LTM, G13)</f>
         <v/>
       </c>
       <c r="T13">
-        <f>CIQ("TSE:"&amp;F979, "IQ_BASIC_EPS_INCL", IQ_LTM, G979)</f>
+        <f>CIQ("TSE:"&amp;F13, "IQ_BASIC_EPS_INCL", IQ_LTM, G13)</f>
         <v/>
       </c>
       <c r="U13">
-        <f>(G979-F979)/365</f>
+        <f>(G13-F13)/365</f>
         <v/>
       </c>
       <c r="V13">
-        <f>(Q979/P979)^(1/T979)-1</f>
+        <f>(Q13/P13)^(1/T13)-1</f>
         <v/>
       </c>
       <c r="W13">
-        <f>(S979/R979)^(1/T979)-1</f>
+        <f>(S13/R13)^(1/T13)-1</f>
         <v/>
       </c>
       <c r="X13" t="inlineStr"/>
@@ -1783,12 +1783,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2000/04</t>
+          <t>2000/04/01</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024/03</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1821,39 +1821,39 @@
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14">
-        <f>CIQ("TSE:"&amp;F984, "IQ_LASTSALEPRICE", G984)</f>
+        <f>CIQ("TSE:"&amp;F14, "IQ_LASTSALEPRICE", G14)</f>
         <v/>
       </c>
       <c r="P14">
-        <f>CIQ("TSE:"&amp;F984, "IQ_LASTSALEPRICE", G984)</f>
+        <f>CIQ("TSE:"&amp;F14, "IQ_LASTSALEPRICE", G14)</f>
         <v/>
       </c>
       <c r="Q14">
-        <f>CIQ("TSE:"&amp;F984, "IQ_OPER_INC", IQ_LTM, G984)</f>
+        <f>CIQ("TSE:"&amp;F14, "IQ_OPER_INC", IQ_LTM, G14)</f>
         <v/>
       </c>
       <c r="R14">
-        <f>CIQ("TSE:"&amp;F984, "IQ_OPER_INC", IQ_LTM, G984)</f>
+        <f>CIQ("TSE:"&amp;F14, "IQ_OPER_INC", IQ_LTM, G14)</f>
         <v/>
       </c>
       <c r="S14">
-        <f>CIQ("TSE:"&amp;F984, "IQ_BASIC_EPS_INCL", IQ_LTM, G984)</f>
+        <f>CIQ("TSE:"&amp;F14, "IQ_BASIC_EPS_INCL", IQ_LTM, G14)</f>
         <v/>
       </c>
       <c r="T14">
-        <f>CIQ("TSE:"&amp;F984, "IQ_BASIC_EPS_INCL", IQ_LTM, G984)</f>
+        <f>CIQ("TSE:"&amp;F14, "IQ_BASIC_EPS_INCL", IQ_LTM, G14)</f>
         <v/>
       </c>
       <c r="U14">
-        <f>(G984-F984)/365</f>
+        <f>(G14-F14)/365</f>
         <v/>
       </c>
       <c r="V14">
-        <f>(Q984/P984)^(1/T984)-1</f>
+        <f>(Q14/P14)^(1/T14)-1</f>
         <v/>
       </c>
       <c r="W14">
-        <f>(S984/R984)^(1/T984)-1</f>
+        <f>(S14/R14)^(1/T14)-1</f>
         <v/>
       </c>
       <c r="X14" t="inlineStr"/>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2019/03</t>
+          <t>2019/03/01</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024/03</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1920,39 +1920,39 @@
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15">
-        <f>CIQ("TSE:"&amp;F987, "IQ_LASTSALEPRICE", G987)</f>
+        <f>CIQ("TSE:"&amp;F15, "IQ_LASTSALEPRICE", G15)</f>
         <v/>
       </c>
       <c r="P15">
-        <f>CIQ("TSE:"&amp;F987, "IQ_LASTSALEPRICE", G987)</f>
+        <f>CIQ("TSE:"&amp;F15, "IQ_LASTSALEPRICE", G15)</f>
         <v/>
       </c>
       <c r="Q15">
-        <f>CIQ("TSE:"&amp;F987, "IQ_OPER_INC", IQ_LTM, G987)</f>
+        <f>CIQ("TSE:"&amp;F15, "IQ_OPER_INC", IQ_LTM, G15)</f>
         <v/>
       </c>
       <c r="R15">
-        <f>CIQ("TSE:"&amp;F987, "IQ_OPER_INC", IQ_LTM, G987)</f>
+        <f>CIQ("TSE:"&amp;F15, "IQ_OPER_INC", IQ_LTM, G15)</f>
         <v/>
       </c>
       <c r="S15">
-        <f>CIQ("TSE:"&amp;F987, "IQ_BASIC_EPS_INCL", IQ_LTM, G987)</f>
+        <f>CIQ("TSE:"&amp;F15, "IQ_BASIC_EPS_INCL", IQ_LTM, G15)</f>
         <v/>
       </c>
       <c r="T15">
-        <f>CIQ("TSE:"&amp;F987, "IQ_BASIC_EPS_INCL", IQ_LTM, G987)</f>
+        <f>CIQ("TSE:"&amp;F15, "IQ_BASIC_EPS_INCL", IQ_LTM, G15)</f>
         <v/>
       </c>
       <c r="U15">
-        <f>(G987-F987)/365</f>
+        <f>(G15-F15)/365</f>
         <v/>
       </c>
       <c r="V15">
-        <f>(Q987/P987)^(1/T987)-1</f>
+        <f>(Q15/P15)^(1/T15)-1</f>
         <v/>
       </c>
       <c r="W15">
-        <f>(S987/R987)^(1/T987)-1</f>
+        <f>(S15/R15)^(1/T15)-1</f>
         <v/>
       </c>
       <c r="X15" t="inlineStr"/>
@@ -1985,12 +1985,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2015/01</t>
+          <t>2015/01/01</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2015,39 +2015,39 @@
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16">
-        <f>CIQ("TSE:"&amp;F1615, "IQ_LASTSALEPRICE", G1615)</f>
+        <f>CIQ("TSE:"&amp;F16, "IQ_LASTSALEPRICE", G16)</f>
         <v/>
       </c>
       <c r="P16">
-        <f>CIQ("TSE:"&amp;F1615, "IQ_LASTSALEPRICE", G1615)</f>
+        <f>CIQ("TSE:"&amp;F16, "IQ_LASTSALEPRICE", G16)</f>
         <v/>
       </c>
       <c r="Q16">
-        <f>CIQ("TSE:"&amp;F1615, "IQ_OPER_INC", IQ_LTM, G1615)</f>
+        <f>CIQ("TSE:"&amp;F16, "IQ_OPER_INC", IQ_LTM, G16)</f>
         <v/>
       </c>
       <c r="R16">
-        <f>CIQ("TSE:"&amp;F1615, "IQ_OPER_INC", IQ_LTM, G1615)</f>
+        <f>CIQ("TSE:"&amp;F16, "IQ_OPER_INC", IQ_LTM, G16)</f>
         <v/>
       </c>
       <c r="S16">
-        <f>CIQ("TSE:"&amp;F1615, "IQ_BASIC_EPS_INCL", IQ_LTM, G1615)</f>
+        <f>CIQ("TSE:"&amp;F16, "IQ_BASIC_EPS_INCL", IQ_LTM, G16)</f>
         <v/>
       </c>
       <c r="T16">
-        <f>CIQ("TSE:"&amp;F1615, "IQ_BASIC_EPS_INCL", IQ_LTM, G1615)</f>
+        <f>CIQ("TSE:"&amp;F16, "IQ_BASIC_EPS_INCL", IQ_LTM, G16)</f>
         <v/>
       </c>
       <c r="U16">
-        <f>(G1615-F1615)/365</f>
+        <f>(G16-F16)/365</f>
         <v/>
       </c>
       <c r="V16">
-        <f>(Q1615/P1615)^(1/T1615)-1</f>
+        <f>(Q16/P16)^(1/T16)-1</f>
         <v/>
       </c>
       <c r="W16">
-        <f>(S1615/R1615)^(1/T1615)-1</f>
+        <f>(S16/R16)^(1/T16)-1</f>
         <v/>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -2080,12 +2080,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023/04</t>
+          <t>2023/04/01</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2114,39 +2114,39 @@
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17">
-        <f>CIQ("TSE:"&amp;F1699, "IQ_LASTSALEPRICE", G1699)</f>
+        <f>CIQ("TSE:"&amp;F17, "IQ_LASTSALEPRICE", G17)</f>
         <v/>
       </c>
       <c r="P17">
-        <f>CIQ("TSE:"&amp;F1699, "IQ_LASTSALEPRICE", G1699)</f>
+        <f>CIQ("TSE:"&amp;F17, "IQ_LASTSALEPRICE", G17)</f>
         <v/>
       </c>
       <c r="Q17">
-        <f>CIQ("TSE:"&amp;F1699, "IQ_OPER_INC", IQ_LTM, G1699)</f>
+        <f>CIQ("TSE:"&amp;F17, "IQ_OPER_INC", IQ_LTM, G17)</f>
         <v/>
       </c>
       <c r="R17">
-        <f>CIQ("TSE:"&amp;F1699, "IQ_OPER_INC", IQ_LTM, G1699)</f>
+        <f>CIQ("TSE:"&amp;F17, "IQ_OPER_INC", IQ_LTM, G17)</f>
         <v/>
       </c>
       <c r="S17">
-        <f>CIQ("TSE:"&amp;F1699, "IQ_BASIC_EPS_INCL", IQ_LTM, G1699)</f>
+        <f>CIQ("TSE:"&amp;F17, "IQ_BASIC_EPS_INCL", IQ_LTM, G17)</f>
         <v/>
       </c>
       <c r="T17">
-        <f>CIQ("TSE:"&amp;F1699, "IQ_BASIC_EPS_INCL", IQ_LTM, G1699)</f>
+        <f>CIQ("TSE:"&amp;F17, "IQ_BASIC_EPS_INCL", IQ_LTM, G17)</f>
         <v/>
       </c>
       <c r="U17">
-        <f>(G1699-F1699)/365</f>
+        <f>(G17-F17)/365</f>
         <v/>
       </c>
       <c r="V17">
-        <f>(Q1699/P1699)^(1/T1699)-1</f>
+        <f>(Q17/P17)^(1/T17)-1</f>
         <v/>
       </c>
       <c r="W17">
-        <f>(S1699/R1699)^(1/T1699)-1</f>
+        <f>(S17/R17)^(1/T17)-1</f>
         <v/>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -2179,12 +2179,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2016/04</t>
+          <t>2016/04/01</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2213,39 +2213,39 @@
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18">
-        <f>CIQ("TSE:"&amp;F2004, "IQ_LASTSALEPRICE", G2004)</f>
+        <f>CIQ("TSE:"&amp;F18, "IQ_LASTSALEPRICE", G18)</f>
         <v/>
       </c>
       <c r="P18">
-        <f>CIQ("TSE:"&amp;F2004, "IQ_LASTSALEPRICE", G2004)</f>
+        <f>CIQ("TSE:"&amp;F18, "IQ_LASTSALEPRICE", G18)</f>
         <v/>
       </c>
       <c r="Q18">
-        <f>CIQ("TSE:"&amp;F2004, "IQ_OPER_INC", IQ_LTM, G2004)</f>
+        <f>CIQ("TSE:"&amp;F18, "IQ_OPER_INC", IQ_LTM, G18)</f>
         <v/>
       </c>
       <c r="R18">
-        <f>CIQ("TSE:"&amp;F2004, "IQ_OPER_INC", IQ_LTM, G2004)</f>
+        <f>CIQ("TSE:"&amp;F18, "IQ_OPER_INC", IQ_LTM, G18)</f>
         <v/>
       </c>
       <c r="S18">
-        <f>CIQ("TSE:"&amp;F2004, "IQ_BASIC_EPS_INCL", IQ_LTM, G2004)</f>
+        <f>CIQ("TSE:"&amp;F18, "IQ_BASIC_EPS_INCL", IQ_LTM, G18)</f>
         <v/>
       </c>
       <c r="T18">
-        <f>CIQ("TSE:"&amp;F2004, "IQ_BASIC_EPS_INCL", IQ_LTM, G2004)</f>
+        <f>CIQ("TSE:"&amp;F18, "IQ_BASIC_EPS_INCL", IQ_LTM, G18)</f>
         <v/>
       </c>
       <c r="U18">
-        <f>(G2004-F2004)/365</f>
+        <f>(G18-F18)/365</f>
         <v/>
       </c>
       <c r="V18">
-        <f>(Q2004/P2004)^(1/T2004)-1</f>
+        <f>(Q18/P18)^(1/T18)-1</f>
         <v/>
       </c>
       <c r="W18">
-        <f>(S2004/R2004)^(1/T2004)-1</f>
+        <f>(S18/R18)^(1/T18)-1</f>
         <v/>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -2278,12 +2278,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021/06</t>
+          <t>2021/06/01</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024/05</t>
+          <t>2024/05/01</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2312,39 +2312,39 @@
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19">
-        <f>CIQ("TSE:"&amp;F2012, "IQ_LASTSALEPRICE", G2012)</f>
+        <f>CIQ("TSE:"&amp;F19, "IQ_LASTSALEPRICE", G19)</f>
         <v/>
       </c>
       <c r="P19">
-        <f>CIQ("TSE:"&amp;F2012, "IQ_LASTSALEPRICE", G2012)</f>
+        <f>CIQ("TSE:"&amp;F19, "IQ_LASTSALEPRICE", G19)</f>
         <v/>
       </c>
       <c r="Q19">
-        <f>CIQ("TSE:"&amp;F2012, "IQ_OPER_INC", IQ_LTM, G2012)</f>
+        <f>CIQ("TSE:"&amp;F19, "IQ_OPER_INC", IQ_LTM, G19)</f>
         <v/>
       </c>
       <c r="R19">
-        <f>CIQ("TSE:"&amp;F2012, "IQ_OPER_INC", IQ_LTM, G2012)</f>
+        <f>CIQ("TSE:"&amp;F19, "IQ_OPER_INC", IQ_LTM, G19)</f>
         <v/>
       </c>
       <c r="S19">
-        <f>CIQ("TSE:"&amp;F2012, "IQ_BASIC_EPS_INCL", IQ_LTM, G2012)</f>
+        <f>CIQ("TSE:"&amp;F19, "IQ_BASIC_EPS_INCL", IQ_LTM, G19)</f>
         <v/>
       </c>
       <c r="T19">
-        <f>CIQ("TSE:"&amp;F2012, "IQ_BASIC_EPS_INCL", IQ_LTM, G2012)</f>
+        <f>CIQ("TSE:"&amp;F19, "IQ_BASIC_EPS_INCL", IQ_LTM, G19)</f>
         <v/>
       </c>
       <c r="U19">
-        <f>(G2012-F2012)/365</f>
+        <f>(G19-F19)/365</f>
         <v/>
       </c>
       <c r="V19">
-        <f>(Q2012/P2012)^(1/T2012)-1</f>
+        <f>(Q19/P19)^(1/T19)-1</f>
         <v/>
       </c>
       <c r="W19">
-        <f>(S2012/R2012)^(1/T2012)-1</f>
+        <f>(S19/R19)^(1/T19)-1</f>
         <v/>
       </c>
       <c r="X19" t="inlineStr"/>
@@ -2377,12 +2377,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2009/07</t>
+          <t>2009/07/01</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024/03</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2415,39 +2415,39 @@
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20">
-        <f>CIQ("TSE:"&amp;F2286, "IQ_LASTSALEPRICE", G2286)</f>
+        <f>CIQ("TSE:"&amp;F20, "IQ_LASTSALEPRICE", G20)</f>
         <v/>
       </c>
       <c r="P20">
-        <f>CIQ("TSE:"&amp;F2286, "IQ_LASTSALEPRICE", G2286)</f>
+        <f>CIQ("TSE:"&amp;F20, "IQ_LASTSALEPRICE", G20)</f>
         <v/>
       </c>
       <c r="Q20">
-        <f>CIQ("TSE:"&amp;F2286, "IQ_OPER_INC", IQ_LTM, G2286)</f>
+        <f>CIQ("TSE:"&amp;F20, "IQ_OPER_INC", IQ_LTM, G20)</f>
         <v/>
       </c>
       <c r="R20">
-        <f>CIQ("TSE:"&amp;F2286, "IQ_OPER_INC", IQ_LTM, G2286)</f>
+        <f>CIQ("TSE:"&amp;F20, "IQ_OPER_INC", IQ_LTM, G20)</f>
         <v/>
       </c>
       <c r="S20">
-        <f>CIQ("TSE:"&amp;F2286, "IQ_BASIC_EPS_INCL", IQ_LTM, G2286)</f>
+        <f>CIQ("TSE:"&amp;F20, "IQ_BASIC_EPS_INCL", IQ_LTM, G20)</f>
         <v/>
       </c>
       <c r="T20">
-        <f>CIQ("TSE:"&amp;F2286, "IQ_BASIC_EPS_INCL", IQ_LTM, G2286)</f>
+        <f>CIQ("TSE:"&amp;F20, "IQ_BASIC_EPS_INCL", IQ_LTM, G20)</f>
         <v/>
       </c>
       <c r="U20">
-        <f>(G2286-F2286)/365</f>
+        <f>(G20-F20)/365</f>
         <v/>
       </c>
       <c r="V20">
-        <f>(Q2286/P2286)^(1/T2286)-1</f>
+        <f>(Q20/P20)^(1/T20)-1</f>
         <v/>
       </c>
       <c r="W20">
-        <f>(S2286/R2286)^(1/T2286)-1</f>
+        <f>(S20/R20)^(1/T20)-1</f>
         <v/>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -2480,12 +2480,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2020/08</t>
+          <t>2020/08/01</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2514,39 +2514,39 @@
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21">
-        <f>CIQ("TSE:"&amp;F2313, "IQ_LASTSALEPRICE", G2313)</f>
+        <f>CIQ("TSE:"&amp;F21, "IQ_LASTSALEPRICE", G21)</f>
         <v/>
       </c>
       <c r="P21">
-        <f>CIQ("TSE:"&amp;F2313, "IQ_LASTSALEPRICE", G2313)</f>
+        <f>CIQ("TSE:"&amp;F21, "IQ_LASTSALEPRICE", G21)</f>
         <v/>
       </c>
       <c r="Q21">
-        <f>CIQ("TSE:"&amp;F2313, "IQ_OPER_INC", IQ_LTM, G2313)</f>
+        <f>CIQ("TSE:"&amp;F21, "IQ_OPER_INC", IQ_LTM, G21)</f>
         <v/>
       </c>
       <c r="R21">
-        <f>CIQ("TSE:"&amp;F2313, "IQ_OPER_INC", IQ_LTM, G2313)</f>
+        <f>CIQ("TSE:"&amp;F21, "IQ_OPER_INC", IQ_LTM, G21)</f>
         <v/>
       </c>
       <c r="S21">
-        <f>CIQ("TSE:"&amp;F2313, "IQ_BASIC_EPS_INCL", IQ_LTM, G2313)</f>
+        <f>CIQ("TSE:"&amp;F21, "IQ_BASIC_EPS_INCL", IQ_LTM, G21)</f>
         <v/>
       </c>
       <c r="T21">
-        <f>CIQ("TSE:"&amp;F2313, "IQ_BASIC_EPS_INCL", IQ_LTM, G2313)</f>
+        <f>CIQ("TSE:"&amp;F21, "IQ_BASIC_EPS_INCL", IQ_LTM, G21)</f>
         <v/>
       </c>
       <c r="U21">
-        <f>(G2313-F2313)/365</f>
+        <f>(G21-F21)/365</f>
         <v/>
       </c>
       <c r="V21">
-        <f>(Q2313/P2313)^(1/T2313)-1</f>
+        <f>(Q21/P21)^(1/T21)-1</f>
         <v/>
       </c>
       <c r="W21">
-        <f>(S2313/R2313)^(1/T2313)-1</f>
+        <f>(S21/R21)^(1/T21)-1</f>
         <v/>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -2579,12 +2579,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021/06</t>
+          <t>2021/06/01</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2613,39 +2613,39 @@
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22">
-        <f>CIQ("TSE:"&amp;F2460, "IQ_LASTSALEPRICE", G2460)</f>
+        <f>CIQ("TSE:"&amp;F22, "IQ_LASTSALEPRICE", G22)</f>
         <v/>
       </c>
       <c r="P22">
-        <f>CIQ("TSE:"&amp;F2460, "IQ_LASTSALEPRICE", G2460)</f>
+        <f>CIQ("TSE:"&amp;F22, "IQ_LASTSALEPRICE", G22)</f>
         <v/>
       </c>
       <c r="Q22">
-        <f>CIQ("TSE:"&amp;F2460, "IQ_OPER_INC", IQ_LTM, G2460)</f>
+        <f>CIQ("TSE:"&amp;F22, "IQ_OPER_INC", IQ_LTM, G22)</f>
         <v/>
       </c>
       <c r="R22">
-        <f>CIQ("TSE:"&amp;F2460, "IQ_OPER_INC", IQ_LTM, G2460)</f>
+        <f>CIQ("TSE:"&amp;F22, "IQ_OPER_INC", IQ_LTM, G22)</f>
         <v/>
       </c>
       <c r="S22">
-        <f>CIQ("TSE:"&amp;F2460, "IQ_BASIC_EPS_INCL", IQ_LTM, G2460)</f>
+        <f>CIQ("TSE:"&amp;F22, "IQ_BASIC_EPS_INCL", IQ_LTM, G22)</f>
         <v/>
       </c>
       <c r="T22">
-        <f>CIQ("TSE:"&amp;F2460, "IQ_BASIC_EPS_INCL", IQ_LTM, G2460)</f>
+        <f>CIQ("TSE:"&amp;F22, "IQ_BASIC_EPS_INCL", IQ_LTM, G22)</f>
         <v/>
       </c>
       <c r="U22">
-        <f>(G2460-F2460)/365</f>
+        <f>(G22-F22)/365</f>
         <v/>
       </c>
       <c r="V22">
-        <f>(Q2460/P2460)^(1/T2460)-1</f>
+        <f>(Q22/P22)^(1/T22)-1</f>
         <v/>
       </c>
       <c r="W22">
-        <f>(S2460/R2460)^(1/T2460)-1</f>
+        <f>(S22/R22)^(1/T22)-1</f>
         <v/>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -2678,12 +2678,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1993/04</t>
+          <t>1993/04/01</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2716,39 +2716,39 @@
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23">
-        <f>CIQ("TSE:"&amp;F2478, "IQ_LASTSALEPRICE", G2478)</f>
+        <f>CIQ("TSE:"&amp;F23, "IQ_LASTSALEPRICE", G23)</f>
         <v/>
       </c>
       <c r="P23">
-        <f>CIQ("TSE:"&amp;F2478, "IQ_LASTSALEPRICE", G2478)</f>
+        <f>CIQ("TSE:"&amp;F23, "IQ_LASTSALEPRICE", G23)</f>
         <v/>
       </c>
       <c r="Q23">
-        <f>CIQ("TSE:"&amp;F2478, "IQ_OPER_INC", IQ_LTM, G2478)</f>
+        <f>CIQ("TSE:"&amp;F23, "IQ_OPER_INC", IQ_LTM, G23)</f>
         <v/>
       </c>
       <c r="R23">
-        <f>CIQ("TSE:"&amp;F2478, "IQ_OPER_INC", IQ_LTM, G2478)</f>
+        <f>CIQ("TSE:"&amp;F23, "IQ_OPER_INC", IQ_LTM, G23)</f>
         <v/>
       </c>
       <c r="S23">
-        <f>CIQ("TSE:"&amp;F2478, "IQ_BASIC_EPS_INCL", IQ_LTM, G2478)</f>
+        <f>CIQ("TSE:"&amp;F23, "IQ_BASIC_EPS_INCL", IQ_LTM, G23)</f>
         <v/>
       </c>
       <c r="T23">
-        <f>CIQ("TSE:"&amp;F2478, "IQ_BASIC_EPS_INCL", IQ_LTM, G2478)</f>
+        <f>CIQ("TSE:"&amp;F23, "IQ_BASIC_EPS_INCL", IQ_LTM, G23)</f>
         <v/>
       </c>
       <c r="U23">
-        <f>(G2478-F2478)/365</f>
+        <f>(G23-F23)/365</f>
         <v/>
       </c>
       <c r="V23">
-        <f>(Q2478/P2478)^(1/T2478)-1</f>
+        <f>(Q23/P23)^(1/T23)-1</f>
         <v/>
       </c>
       <c r="W23">
-        <f>(S2478/R2478)^(1/T2478)-1</f>
+        <f>(S23/R23)^(1/T23)-1</f>
         <v/>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -2781,12 +2781,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2011/04</t>
+          <t>2011/04/01</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2815,39 +2815,39 @@
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24">
-        <f>CIQ("TSE:"&amp;F2479, "IQ_LASTSALEPRICE", G2479)</f>
+        <f>CIQ("TSE:"&amp;F24, "IQ_LASTSALEPRICE", G24)</f>
         <v/>
       </c>
       <c r="P24">
-        <f>CIQ("TSE:"&amp;F2479, "IQ_LASTSALEPRICE", G2479)</f>
+        <f>CIQ("TSE:"&amp;F24, "IQ_LASTSALEPRICE", G24)</f>
         <v/>
       </c>
       <c r="Q24">
-        <f>CIQ("TSE:"&amp;F2479, "IQ_OPER_INC", IQ_LTM, G2479)</f>
+        <f>CIQ("TSE:"&amp;F24, "IQ_OPER_INC", IQ_LTM, G24)</f>
         <v/>
       </c>
       <c r="R24">
-        <f>CIQ("TSE:"&amp;F2479, "IQ_OPER_INC", IQ_LTM, G2479)</f>
+        <f>CIQ("TSE:"&amp;F24, "IQ_OPER_INC", IQ_LTM, G24)</f>
         <v/>
       </c>
       <c r="S24">
-        <f>CIQ("TSE:"&amp;F2479, "IQ_BASIC_EPS_INCL", IQ_LTM, G2479)</f>
+        <f>CIQ("TSE:"&amp;F24, "IQ_BASIC_EPS_INCL", IQ_LTM, G24)</f>
         <v/>
       </c>
       <c r="T24">
-        <f>CIQ("TSE:"&amp;F2479, "IQ_BASIC_EPS_INCL", IQ_LTM, G2479)</f>
+        <f>CIQ("TSE:"&amp;F24, "IQ_BASIC_EPS_INCL", IQ_LTM, G24)</f>
         <v/>
       </c>
       <c r="U24">
-        <f>(G2479-F2479)/365</f>
+        <f>(G24-F24)/365</f>
         <v/>
       </c>
       <c r="V24">
-        <f>(Q2479/P2479)^(1/T2479)-1</f>
+        <f>(Q24/P24)^(1/T24)-1</f>
         <v/>
       </c>
       <c r="W24">
-        <f>(S2479/R2479)^(1/T2479)-1</f>
+        <f>(S24/R24)^(1/T24)-1</f>
         <v/>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -2880,12 +2880,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2019/03</t>
+          <t>2019/03/01</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2024/03</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2914,39 +2914,39 @@
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25">
-        <f>CIQ("TSE:"&amp;F2516, "IQ_LASTSALEPRICE", G2516)</f>
+        <f>CIQ("TSE:"&amp;F25, "IQ_LASTSALEPRICE", G25)</f>
         <v/>
       </c>
       <c r="P25">
-        <f>CIQ("TSE:"&amp;F2516, "IQ_LASTSALEPRICE", G2516)</f>
+        <f>CIQ("TSE:"&amp;F25, "IQ_LASTSALEPRICE", G25)</f>
         <v/>
       </c>
       <c r="Q25">
-        <f>CIQ("TSE:"&amp;F2516, "IQ_OPER_INC", IQ_LTM, G2516)</f>
+        <f>CIQ("TSE:"&amp;F25, "IQ_OPER_INC", IQ_LTM, G25)</f>
         <v/>
       </c>
       <c r="R25">
-        <f>CIQ("TSE:"&amp;F2516, "IQ_OPER_INC", IQ_LTM, G2516)</f>
+        <f>CIQ("TSE:"&amp;F25, "IQ_OPER_INC", IQ_LTM, G25)</f>
         <v/>
       </c>
       <c r="S25">
-        <f>CIQ("TSE:"&amp;F2516, "IQ_BASIC_EPS_INCL", IQ_LTM, G2516)</f>
+        <f>CIQ("TSE:"&amp;F25, "IQ_BASIC_EPS_INCL", IQ_LTM, G25)</f>
         <v/>
       </c>
       <c r="T25">
-        <f>CIQ("TSE:"&amp;F2516, "IQ_BASIC_EPS_INCL", IQ_LTM, G2516)</f>
+        <f>CIQ("TSE:"&amp;F25, "IQ_BASIC_EPS_INCL", IQ_LTM, G25)</f>
         <v/>
       </c>
       <c r="U25">
-        <f>(G2516-F2516)/365</f>
+        <f>(G25-F25)/365</f>
         <v/>
       </c>
       <c r="V25">
-        <f>(Q2516/P2516)^(1/T2516)-1</f>
+        <f>(Q25/P25)^(1/T25)-1</f>
         <v/>
       </c>
       <c r="W25">
-        <f>(S2516/R2516)^(1/T2516)-1</f>
+        <f>(S25/R25)^(1/T25)-1</f>
         <v/>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -2979,12 +2979,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2015/07</t>
+          <t>2015/07/01</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3013,39 +3013,39 @@
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26">
-        <f>CIQ("TSE:"&amp;F2585, "IQ_LASTSALEPRICE", G2585)</f>
+        <f>CIQ("TSE:"&amp;F26, "IQ_LASTSALEPRICE", G26)</f>
         <v/>
       </c>
       <c r="P26">
-        <f>CIQ("TSE:"&amp;F2585, "IQ_LASTSALEPRICE", G2585)</f>
+        <f>CIQ("TSE:"&amp;F26, "IQ_LASTSALEPRICE", G26)</f>
         <v/>
       </c>
       <c r="Q26">
-        <f>CIQ("TSE:"&amp;F2585, "IQ_OPER_INC", IQ_LTM, G2585)</f>
+        <f>CIQ("TSE:"&amp;F26, "IQ_OPER_INC", IQ_LTM, G26)</f>
         <v/>
       </c>
       <c r="R26">
-        <f>CIQ("TSE:"&amp;F2585, "IQ_OPER_INC", IQ_LTM, G2585)</f>
+        <f>CIQ("TSE:"&amp;F26, "IQ_OPER_INC", IQ_LTM, G26)</f>
         <v/>
       </c>
       <c r="S26">
-        <f>CIQ("TSE:"&amp;F2585, "IQ_BASIC_EPS_INCL", IQ_LTM, G2585)</f>
+        <f>CIQ("TSE:"&amp;F26, "IQ_BASIC_EPS_INCL", IQ_LTM, G26)</f>
         <v/>
       </c>
       <c r="T26">
-        <f>CIQ("TSE:"&amp;F2585, "IQ_BASIC_EPS_INCL", IQ_LTM, G2585)</f>
+        <f>CIQ("TSE:"&amp;F26, "IQ_BASIC_EPS_INCL", IQ_LTM, G26)</f>
         <v/>
       </c>
       <c r="U26">
-        <f>(G2585-F2585)/365</f>
+        <f>(G26-F26)/365</f>
         <v/>
       </c>
       <c r="V26">
-        <f>(Q2585/P2585)^(1/T2585)-1</f>
+        <f>(Q26/P26)^(1/T26)-1</f>
         <v/>
       </c>
       <c r="W26">
-        <f>(S2585/R2585)^(1/T2585)-1</f>
+        <f>(S26/R26)^(1/T26)-1</f>
         <v/>
       </c>
       <c r="X26" t="inlineStr"/>
@@ -3078,12 +3078,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1986/04</t>
+          <t>1986/04/01</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3116,39 +3116,39 @@
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27">
-        <f>CIQ("TSE:"&amp;F2700, "IQ_LASTSALEPRICE", G2700)</f>
+        <f>CIQ("TSE:"&amp;F27, "IQ_LASTSALEPRICE", G27)</f>
         <v/>
       </c>
       <c r="P27">
-        <f>CIQ("TSE:"&amp;F2700, "IQ_LASTSALEPRICE", G2700)</f>
+        <f>CIQ("TSE:"&amp;F27, "IQ_LASTSALEPRICE", G27)</f>
         <v/>
       </c>
       <c r="Q27">
-        <f>CIQ("TSE:"&amp;F2700, "IQ_OPER_INC", IQ_LTM, G2700)</f>
+        <f>CIQ("TSE:"&amp;F27, "IQ_OPER_INC", IQ_LTM, G27)</f>
         <v/>
       </c>
       <c r="R27">
-        <f>CIQ("TSE:"&amp;F2700, "IQ_OPER_INC", IQ_LTM, G2700)</f>
+        <f>CIQ("TSE:"&amp;F27, "IQ_OPER_INC", IQ_LTM, G27)</f>
         <v/>
       </c>
       <c r="S27">
-        <f>CIQ("TSE:"&amp;F2700, "IQ_BASIC_EPS_INCL", IQ_LTM, G2700)</f>
+        <f>CIQ("TSE:"&amp;F27, "IQ_BASIC_EPS_INCL", IQ_LTM, G27)</f>
         <v/>
       </c>
       <c r="T27">
-        <f>CIQ("TSE:"&amp;F2700, "IQ_BASIC_EPS_INCL", IQ_LTM, G2700)</f>
+        <f>CIQ("TSE:"&amp;F27, "IQ_BASIC_EPS_INCL", IQ_LTM, G27)</f>
         <v/>
       </c>
       <c r="U27">
-        <f>(G2700-F2700)/365</f>
+        <f>(G27-F27)/365</f>
         <v/>
       </c>
       <c r="V27">
-        <f>(Q2700/P2700)^(1/T2700)-1</f>
+        <f>(Q27/P27)^(1/T27)-1</f>
         <v/>
       </c>
       <c r="W27">
-        <f>(S2700/R2700)^(1/T2700)-1</f>
+        <f>(S27/R27)^(1/T27)-1</f>
         <v/>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -3181,12 +3181,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1986/04</t>
+          <t>1986/04/01</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3219,39 +3219,39 @@
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28">
-        <f>CIQ("TSE:"&amp;F2703, "IQ_LASTSALEPRICE", G2703)</f>
+        <f>CIQ("TSE:"&amp;F28, "IQ_LASTSALEPRICE", G28)</f>
         <v/>
       </c>
       <c r="P28">
-        <f>CIQ("TSE:"&amp;F2703, "IQ_LASTSALEPRICE", G2703)</f>
+        <f>CIQ("TSE:"&amp;F28, "IQ_LASTSALEPRICE", G28)</f>
         <v/>
       </c>
       <c r="Q28">
-        <f>CIQ("TSE:"&amp;F2703, "IQ_OPER_INC", IQ_LTM, G2703)</f>
+        <f>CIQ("TSE:"&amp;F28, "IQ_OPER_INC", IQ_LTM, G28)</f>
         <v/>
       </c>
       <c r="R28">
-        <f>CIQ("TSE:"&amp;F2703, "IQ_OPER_INC", IQ_LTM, G2703)</f>
+        <f>CIQ("TSE:"&amp;F28, "IQ_OPER_INC", IQ_LTM, G28)</f>
         <v/>
       </c>
       <c r="S28">
-        <f>CIQ("TSE:"&amp;F2703, "IQ_BASIC_EPS_INCL", IQ_LTM, G2703)</f>
+        <f>CIQ("TSE:"&amp;F28, "IQ_BASIC_EPS_INCL", IQ_LTM, G28)</f>
         <v/>
       </c>
       <c r="T28">
-        <f>CIQ("TSE:"&amp;F2703, "IQ_BASIC_EPS_INCL", IQ_LTM, G2703)</f>
+        <f>CIQ("TSE:"&amp;F28, "IQ_BASIC_EPS_INCL", IQ_LTM, G28)</f>
         <v/>
       </c>
       <c r="U28">
-        <f>(G2703-F2703)/365</f>
+        <f>(G28-F28)/365</f>
         <v/>
       </c>
       <c r="V28">
-        <f>(Q2703/P2703)^(1/T2703)-1</f>
+        <f>(Q28/P28)^(1/T28)-1</f>
         <v/>
       </c>
       <c r="W28">
-        <f>(S2703/R2703)^(1/T2703)-1</f>
+        <f>(S28/R28)^(1/T28)-1</f>
         <v/>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023/06</t>
+          <t>2023/06/01</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3318,39 +3318,39 @@
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29">
-        <f>CIQ("TSE:"&amp;F2741, "IQ_LASTSALEPRICE", G2741)</f>
+        <f>CIQ("TSE:"&amp;F29, "IQ_LASTSALEPRICE", G29)</f>
         <v/>
       </c>
       <c r="P29">
-        <f>CIQ("TSE:"&amp;F2741, "IQ_LASTSALEPRICE", G2741)</f>
+        <f>CIQ("TSE:"&amp;F29, "IQ_LASTSALEPRICE", G29)</f>
         <v/>
       </c>
       <c r="Q29">
-        <f>CIQ("TSE:"&amp;F2741, "IQ_OPER_INC", IQ_LTM, G2741)</f>
+        <f>CIQ("TSE:"&amp;F29, "IQ_OPER_INC", IQ_LTM, G29)</f>
         <v/>
       </c>
       <c r="R29">
-        <f>CIQ("TSE:"&amp;F2741, "IQ_OPER_INC", IQ_LTM, G2741)</f>
+        <f>CIQ("TSE:"&amp;F29, "IQ_OPER_INC", IQ_LTM, G29)</f>
         <v/>
       </c>
       <c r="S29">
-        <f>CIQ("TSE:"&amp;F2741, "IQ_BASIC_EPS_INCL", IQ_LTM, G2741)</f>
+        <f>CIQ("TSE:"&amp;F29, "IQ_BASIC_EPS_INCL", IQ_LTM, G29)</f>
         <v/>
       </c>
       <c r="T29">
-        <f>CIQ("TSE:"&amp;F2741, "IQ_BASIC_EPS_INCL", IQ_LTM, G2741)</f>
+        <f>CIQ("TSE:"&amp;F29, "IQ_BASIC_EPS_INCL", IQ_LTM, G29)</f>
         <v/>
       </c>
       <c r="U29">
-        <f>(G2741-F2741)/365</f>
+        <f>(G29-F29)/365</f>
         <v/>
       </c>
       <c r="V29">
-        <f>(Q2741/P2741)^(1/T2741)-1</f>
+        <f>(Q29/P29)^(1/T29)-1</f>
         <v/>
       </c>
       <c r="W29">
-        <f>(S2741/R2741)^(1/T2741)-1</f>
+        <f>(S29/R29)^(1/T29)-1</f>
         <v/>
       </c>
       <c r="X29" t="inlineStr"/>
@@ -3383,12 +3383,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023/06</t>
+          <t>2023/06/01</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3413,39 +3413,39 @@
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30">
-        <f>CIQ("TSE:"&amp;F2797, "IQ_LASTSALEPRICE", G2797)</f>
+        <f>CIQ("TSE:"&amp;F30, "IQ_LASTSALEPRICE", G30)</f>
         <v/>
       </c>
       <c r="P30">
-        <f>CIQ("TSE:"&amp;F2797, "IQ_LASTSALEPRICE", G2797)</f>
+        <f>CIQ("TSE:"&amp;F30, "IQ_LASTSALEPRICE", G30)</f>
         <v/>
       </c>
       <c r="Q30">
-        <f>CIQ("TSE:"&amp;F2797, "IQ_OPER_INC", IQ_LTM, G2797)</f>
+        <f>CIQ("TSE:"&amp;F30, "IQ_OPER_INC", IQ_LTM, G30)</f>
         <v/>
       </c>
       <c r="R30">
-        <f>CIQ("TSE:"&amp;F2797, "IQ_OPER_INC", IQ_LTM, G2797)</f>
+        <f>CIQ("TSE:"&amp;F30, "IQ_OPER_INC", IQ_LTM, G30)</f>
         <v/>
       </c>
       <c r="S30">
-        <f>CIQ("TSE:"&amp;F2797, "IQ_BASIC_EPS_INCL", IQ_LTM, G2797)</f>
+        <f>CIQ("TSE:"&amp;F30, "IQ_BASIC_EPS_INCL", IQ_LTM, G30)</f>
         <v/>
       </c>
       <c r="T30">
-        <f>CIQ("TSE:"&amp;F2797, "IQ_BASIC_EPS_INCL", IQ_LTM, G2797)</f>
+        <f>CIQ("TSE:"&amp;F30, "IQ_BASIC_EPS_INCL", IQ_LTM, G30)</f>
         <v/>
       </c>
       <c r="U30">
-        <f>(G2797-F2797)/365</f>
+        <f>(G30-F30)/365</f>
         <v/>
       </c>
       <c r="V30">
-        <f>(Q2797/P2797)^(1/T2797)-1</f>
+        <f>(Q30/P30)^(1/T30)-1</f>
         <v/>
       </c>
       <c r="W30">
-        <f>(S2797/R2797)^(1/T2797)-1</f>
+        <f>(S30/R30)^(1/T30)-1</f>
         <v/>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -3478,12 +3478,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1992/04</t>
+          <t>1992/04/01</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3516,39 +3516,39 @@
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31">
-        <f>CIQ("TSE:"&amp;F2803, "IQ_LASTSALEPRICE", G2803)</f>
+        <f>CIQ("TSE:"&amp;F31, "IQ_LASTSALEPRICE", G31)</f>
         <v/>
       </c>
       <c r="P31">
-        <f>CIQ("TSE:"&amp;F2803, "IQ_LASTSALEPRICE", G2803)</f>
+        <f>CIQ("TSE:"&amp;F31, "IQ_LASTSALEPRICE", G31)</f>
         <v/>
       </c>
       <c r="Q31">
-        <f>CIQ("TSE:"&amp;F2803, "IQ_OPER_INC", IQ_LTM, G2803)</f>
+        <f>CIQ("TSE:"&amp;F31, "IQ_OPER_INC", IQ_LTM, G31)</f>
         <v/>
       </c>
       <c r="R31">
-        <f>CIQ("TSE:"&amp;F2803, "IQ_OPER_INC", IQ_LTM, G2803)</f>
+        <f>CIQ("TSE:"&amp;F31, "IQ_OPER_INC", IQ_LTM, G31)</f>
         <v/>
       </c>
       <c r="S31">
-        <f>CIQ("TSE:"&amp;F2803, "IQ_BASIC_EPS_INCL", IQ_LTM, G2803)</f>
+        <f>CIQ("TSE:"&amp;F31, "IQ_BASIC_EPS_INCL", IQ_LTM, G31)</f>
         <v/>
       </c>
       <c r="T31">
-        <f>CIQ("TSE:"&amp;F2803, "IQ_BASIC_EPS_INCL", IQ_LTM, G2803)</f>
+        <f>CIQ("TSE:"&amp;F31, "IQ_BASIC_EPS_INCL", IQ_LTM, G31)</f>
         <v/>
       </c>
       <c r="U31">
-        <f>(G2803-F2803)/365</f>
+        <f>(G31-F31)/365</f>
         <v/>
       </c>
       <c r="V31">
-        <f>(Q2803/P2803)^(1/T2803)-1</f>
+        <f>(Q31/P31)^(1/T31)-1</f>
         <v/>
       </c>
       <c r="W31">
-        <f>(S2803/R2803)^(1/T2803)-1</f>
+        <f>(S31/R31)^(1/T31)-1</f>
         <v/>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -3581,12 +3581,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021/11</t>
+          <t>2021/11/01</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3615,39 +3615,39 @@
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32">
-        <f>CIQ("TSE:"&amp;F3134, "IQ_LASTSALEPRICE", G3134)</f>
+        <f>CIQ("TSE:"&amp;F32, "IQ_LASTSALEPRICE", G32)</f>
         <v/>
       </c>
       <c r="P32">
-        <f>CIQ("TSE:"&amp;F3134, "IQ_LASTSALEPRICE", G3134)</f>
+        <f>CIQ("TSE:"&amp;F32, "IQ_LASTSALEPRICE", G32)</f>
         <v/>
       </c>
       <c r="Q32">
-        <f>CIQ("TSE:"&amp;F3134, "IQ_OPER_INC", IQ_LTM, G3134)</f>
+        <f>CIQ("TSE:"&amp;F32, "IQ_OPER_INC", IQ_LTM, G32)</f>
         <v/>
       </c>
       <c r="R32">
-        <f>CIQ("TSE:"&amp;F3134, "IQ_OPER_INC", IQ_LTM, G3134)</f>
+        <f>CIQ("TSE:"&amp;F32, "IQ_OPER_INC", IQ_LTM, G32)</f>
         <v/>
       </c>
       <c r="S32">
-        <f>CIQ("TSE:"&amp;F3134, "IQ_BASIC_EPS_INCL", IQ_LTM, G3134)</f>
+        <f>CIQ("TSE:"&amp;F32, "IQ_BASIC_EPS_INCL", IQ_LTM, G32)</f>
         <v/>
       </c>
       <c r="T32">
-        <f>CIQ("TSE:"&amp;F3134, "IQ_BASIC_EPS_INCL", IQ_LTM, G3134)</f>
+        <f>CIQ("TSE:"&amp;F32, "IQ_BASIC_EPS_INCL", IQ_LTM, G32)</f>
         <v/>
       </c>
       <c r="U32">
-        <f>(G3134-F3134)/365</f>
+        <f>(G32-F32)/365</f>
         <v/>
       </c>
       <c r="V32">
-        <f>(Q3134/P3134)^(1/T3134)-1</f>
+        <f>(Q32/P32)^(1/T32)-1</f>
         <v/>
       </c>
       <c r="W32">
-        <f>(S3134/R3134)^(1/T3134)-1</f>
+        <f>(S32/R32)^(1/T32)-1</f>
         <v/>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -3680,12 +3680,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023/06</t>
+          <t>2023/06/01</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3714,39 +3714,39 @@
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33">
-        <f>CIQ("TSE:"&amp;F3154, "IQ_LASTSALEPRICE", G3154)</f>
+        <f>CIQ("TSE:"&amp;F33, "IQ_LASTSALEPRICE", G33)</f>
         <v/>
       </c>
       <c r="P33">
-        <f>CIQ("TSE:"&amp;F3154, "IQ_LASTSALEPRICE", G3154)</f>
+        <f>CIQ("TSE:"&amp;F33, "IQ_LASTSALEPRICE", G33)</f>
         <v/>
       </c>
       <c r="Q33">
-        <f>CIQ("TSE:"&amp;F3154, "IQ_OPER_INC", IQ_LTM, G3154)</f>
+        <f>CIQ("TSE:"&amp;F33, "IQ_OPER_INC", IQ_LTM, G33)</f>
         <v/>
       </c>
       <c r="R33">
-        <f>CIQ("TSE:"&amp;F3154, "IQ_OPER_INC", IQ_LTM, G3154)</f>
+        <f>CIQ("TSE:"&amp;F33, "IQ_OPER_INC", IQ_LTM, G33)</f>
         <v/>
       </c>
       <c r="S33">
-        <f>CIQ("TSE:"&amp;F3154, "IQ_BASIC_EPS_INCL", IQ_LTM, G3154)</f>
+        <f>CIQ("TSE:"&amp;F33, "IQ_BASIC_EPS_INCL", IQ_LTM, G33)</f>
         <v/>
       </c>
       <c r="T33">
-        <f>CIQ("TSE:"&amp;F3154, "IQ_BASIC_EPS_INCL", IQ_LTM, G3154)</f>
+        <f>CIQ("TSE:"&amp;F33, "IQ_BASIC_EPS_INCL", IQ_LTM, G33)</f>
         <v/>
       </c>
       <c r="U33">
-        <f>(G3154-F3154)/365</f>
+        <f>(G33-F33)/365</f>
         <v/>
       </c>
       <c r="V33">
-        <f>(Q3154/P3154)^(1/T3154)-1</f>
+        <f>(Q33/P33)^(1/T33)-1</f>
         <v/>
       </c>
       <c r="W33">
-        <f>(S3154/R3154)^(1/T3154)-1</f>
+        <f>(S33/R33)^(1/T33)-1</f>
         <v/>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -3779,12 +3779,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2011/05</t>
+          <t>2011/05/01</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3817,39 +3817,39 @@
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34">
-        <f>CIQ("TSE:"&amp;F3165, "IQ_LASTSALEPRICE", G3165)</f>
+        <f>CIQ("TSE:"&amp;F34, "IQ_LASTSALEPRICE", G34)</f>
         <v/>
       </c>
       <c r="P34">
-        <f>CIQ("TSE:"&amp;F3165, "IQ_LASTSALEPRICE", G3165)</f>
+        <f>CIQ("TSE:"&amp;F34, "IQ_LASTSALEPRICE", G34)</f>
         <v/>
       </c>
       <c r="Q34">
-        <f>CIQ("TSE:"&amp;F3165, "IQ_OPER_INC", IQ_LTM, G3165)</f>
+        <f>CIQ("TSE:"&amp;F34, "IQ_OPER_INC", IQ_LTM, G34)</f>
         <v/>
       </c>
       <c r="R34">
-        <f>CIQ("TSE:"&amp;F3165, "IQ_OPER_INC", IQ_LTM, G3165)</f>
+        <f>CIQ("TSE:"&amp;F34, "IQ_OPER_INC", IQ_LTM, G34)</f>
         <v/>
       </c>
       <c r="S34">
-        <f>CIQ("TSE:"&amp;F3165, "IQ_BASIC_EPS_INCL", IQ_LTM, G3165)</f>
+        <f>CIQ("TSE:"&amp;F34, "IQ_BASIC_EPS_INCL", IQ_LTM, G34)</f>
         <v/>
       </c>
       <c r="T34">
-        <f>CIQ("TSE:"&amp;F3165, "IQ_BASIC_EPS_INCL", IQ_LTM, G3165)</f>
+        <f>CIQ("TSE:"&amp;F34, "IQ_BASIC_EPS_INCL", IQ_LTM, G34)</f>
         <v/>
       </c>
       <c r="U34">
-        <f>(G3165-F3165)/365</f>
+        <f>(G34-F34)/365</f>
         <v/>
       </c>
       <c r="V34">
-        <f>(Q3165/P3165)^(1/T3165)-1</f>
+        <f>(Q34/P34)^(1/T34)-1</f>
         <v/>
       </c>
       <c r="W34">
-        <f>(S3165/R3165)^(1/T3165)-1</f>
+        <f>(S34/R34)^(1/T34)-1</f>
         <v/>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -3882,12 +3882,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2022/04</t>
+          <t>2022/04/01</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3920,39 +3920,39 @@
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35">
-        <f>CIQ("TSE:"&amp;F3477, "IQ_LASTSALEPRICE", G3477)</f>
+        <f>CIQ("TSE:"&amp;F35, "IQ_LASTSALEPRICE", G35)</f>
         <v/>
       </c>
       <c r="P35">
-        <f>CIQ("TSE:"&amp;F3477, "IQ_LASTSALEPRICE", G3477)</f>
+        <f>CIQ("TSE:"&amp;F35, "IQ_LASTSALEPRICE", G35)</f>
         <v/>
       </c>
       <c r="Q35">
-        <f>CIQ("TSE:"&amp;F3477, "IQ_OPER_INC", IQ_LTM, G3477)</f>
+        <f>CIQ("TSE:"&amp;F35, "IQ_OPER_INC", IQ_LTM, G35)</f>
         <v/>
       </c>
       <c r="R35">
-        <f>CIQ("TSE:"&amp;F3477, "IQ_OPER_INC", IQ_LTM, G3477)</f>
+        <f>CIQ("TSE:"&amp;F35, "IQ_OPER_INC", IQ_LTM, G35)</f>
         <v/>
       </c>
       <c r="S35">
-        <f>CIQ("TSE:"&amp;F3477, "IQ_BASIC_EPS_INCL", IQ_LTM, G3477)</f>
+        <f>CIQ("TSE:"&amp;F35, "IQ_BASIC_EPS_INCL", IQ_LTM, G35)</f>
         <v/>
       </c>
       <c r="T35">
-        <f>CIQ("TSE:"&amp;F3477, "IQ_BASIC_EPS_INCL", IQ_LTM, G3477)</f>
+        <f>CIQ("TSE:"&amp;F35, "IQ_BASIC_EPS_INCL", IQ_LTM, G35)</f>
         <v/>
       </c>
       <c r="U35">
-        <f>(G3477-F3477)/365</f>
+        <f>(G35-F35)/365</f>
         <v/>
       </c>
       <c r="V35">
-        <f>(Q3477/P3477)^(1/T3477)-1</f>
+        <f>(Q35/P35)^(1/T35)-1</f>
         <v/>
       </c>
       <c r="W35">
-        <f>(S3477/R3477)^(1/T3477)-1</f>
+        <f>(S35/R35)^(1/T35)-1</f>
         <v/>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -3985,12 +3985,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2005/01</t>
+          <t>2005/01/01</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4019,39 +4019,39 @@
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36">
-        <f>CIQ("TSE:"&amp;F3612, "IQ_LASTSALEPRICE", G3612)</f>
+        <f>CIQ("TSE:"&amp;F36, "IQ_LASTSALEPRICE", G36)</f>
         <v/>
       </c>
       <c r="P36">
-        <f>CIQ("TSE:"&amp;F3612, "IQ_LASTSALEPRICE", G3612)</f>
+        <f>CIQ("TSE:"&amp;F36, "IQ_LASTSALEPRICE", G36)</f>
         <v/>
       </c>
       <c r="Q36">
-        <f>CIQ("TSE:"&amp;F3612, "IQ_OPER_INC", IQ_LTM, G3612)</f>
+        <f>CIQ("TSE:"&amp;F36, "IQ_OPER_INC", IQ_LTM, G36)</f>
         <v/>
       </c>
       <c r="R36">
-        <f>CIQ("TSE:"&amp;F3612, "IQ_OPER_INC", IQ_LTM, G3612)</f>
+        <f>CIQ("TSE:"&amp;F36, "IQ_OPER_INC", IQ_LTM, G36)</f>
         <v/>
       </c>
       <c r="S36">
-        <f>CIQ("TSE:"&amp;F3612, "IQ_BASIC_EPS_INCL", IQ_LTM, G3612)</f>
+        <f>CIQ("TSE:"&amp;F36, "IQ_BASIC_EPS_INCL", IQ_LTM, G36)</f>
         <v/>
       </c>
       <c r="T36">
-        <f>CIQ("TSE:"&amp;F3612, "IQ_BASIC_EPS_INCL", IQ_LTM, G3612)</f>
+        <f>CIQ("TSE:"&amp;F36, "IQ_BASIC_EPS_INCL", IQ_LTM, G36)</f>
         <v/>
       </c>
       <c r="U36">
-        <f>(G3612-F3612)/365</f>
+        <f>(G36-F36)/365</f>
         <v/>
       </c>
       <c r="V36">
-        <f>(Q3612/P3612)^(1/T3612)-1</f>
+        <f>(Q36/P36)^(1/T36)-1</f>
         <v/>
       </c>
       <c r="W36">
-        <f>(S3612/R3612)^(1/T3612)-1</f>
+        <f>(S36/R36)^(1/T36)-1</f>
         <v/>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -4084,12 +4084,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2017/06</t>
+          <t>2017/06/01</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4118,39 +4118,39 @@
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37">
-        <f>CIQ("TSE:"&amp;F3640, "IQ_LASTSALEPRICE", G3640)</f>
+        <f>CIQ("TSE:"&amp;F37, "IQ_LASTSALEPRICE", G37)</f>
         <v/>
       </c>
       <c r="P37">
-        <f>CIQ("TSE:"&amp;F3640, "IQ_LASTSALEPRICE", G3640)</f>
+        <f>CIQ("TSE:"&amp;F37, "IQ_LASTSALEPRICE", G37)</f>
         <v/>
       </c>
       <c r="Q37">
-        <f>CIQ("TSE:"&amp;F3640, "IQ_OPER_INC", IQ_LTM, G3640)</f>
+        <f>CIQ("TSE:"&amp;F37, "IQ_OPER_INC", IQ_LTM, G37)</f>
         <v/>
       </c>
       <c r="R37">
-        <f>CIQ("TSE:"&amp;F3640, "IQ_OPER_INC", IQ_LTM, G3640)</f>
+        <f>CIQ("TSE:"&amp;F37, "IQ_OPER_INC", IQ_LTM, G37)</f>
         <v/>
       </c>
       <c r="S37">
-        <f>CIQ("TSE:"&amp;F3640, "IQ_BASIC_EPS_INCL", IQ_LTM, G3640)</f>
+        <f>CIQ("TSE:"&amp;F37, "IQ_BASIC_EPS_INCL", IQ_LTM, G37)</f>
         <v/>
       </c>
       <c r="T37">
-        <f>CIQ("TSE:"&amp;F3640, "IQ_BASIC_EPS_INCL", IQ_LTM, G3640)</f>
+        <f>CIQ("TSE:"&amp;F37, "IQ_BASIC_EPS_INCL", IQ_LTM, G37)</f>
         <v/>
       </c>
       <c r="U37">
-        <f>(G3640-F3640)/365</f>
+        <f>(G37-F37)/365</f>
         <v/>
       </c>
       <c r="V37">
-        <f>(Q3640/P3640)^(1/T3640)-1</f>
+        <f>(Q37/P37)^(1/T37)-1</f>
         <v/>
       </c>
       <c r="W37">
-        <f>(S3640/R3640)^(1/T3640)-1</f>
+        <f>(S37/R37)^(1/T37)-1</f>
         <v/>
       </c>
       <c r="X37" t="inlineStr"/>
@@ -4183,12 +4183,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2015/01</t>
+          <t>2015/01/01</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4217,39 +4217,39 @@
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38">
-        <f>CIQ("TSE:"&amp;F3641, "IQ_LASTSALEPRICE", G3641)</f>
+        <f>CIQ("TSE:"&amp;F38, "IQ_LASTSALEPRICE", G38)</f>
         <v/>
       </c>
       <c r="P38">
-        <f>CIQ("TSE:"&amp;F3641, "IQ_LASTSALEPRICE", G3641)</f>
+        <f>CIQ("TSE:"&amp;F38, "IQ_LASTSALEPRICE", G38)</f>
         <v/>
       </c>
       <c r="Q38">
-        <f>CIQ("TSE:"&amp;F3641, "IQ_OPER_INC", IQ_LTM, G3641)</f>
+        <f>CIQ("TSE:"&amp;F38, "IQ_OPER_INC", IQ_LTM, G38)</f>
         <v/>
       </c>
       <c r="R38">
-        <f>CIQ("TSE:"&amp;F3641, "IQ_OPER_INC", IQ_LTM, G3641)</f>
+        <f>CIQ("TSE:"&amp;F38, "IQ_OPER_INC", IQ_LTM, G38)</f>
         <v/>
       </c>
       <c r="S38">
-        <f>CIQ("TSE:"&amp;F3641, "IQ_BASIC_EPS_INCL", IQ_LTM, G3641)</f>
+        <f>CIQ("TSE:"&amp;F38, "IQ_BASIC_EPS_INCL", IQ_LTM, G38)</f>
         <v/>
       </c>
       <c r="T38">
-        <f>CIQ("TSE:"&amp;F3641, "IQ_BASIC_EPS_INCL", IQ_LTM, G3641)</f>
+        <f>CIQ("TSE:"&amp;F38, "IQ_BASIC_EPS_INCL", IQ_LTM, G38)</f>
         <v/>
       </c>
       <c r="U38">
-        <f>(G3641-F3641)/365</f>
+        <f>(G38-F38)/365</f>
         <v/>
       </c>
       <c r="V38">
-        <f>(Q3641/P3641)^(1/T3641)-1</f>
+        <f>(Q38/P38)^(1/T38)-1</f>
         <v/>
       </c>
       <c r="W38">
-        <f>(S3641/R3641)^(1/T3641)-1</f>
+        <f>(S38/R38)^(1/T38)-1</f>
         <v/>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -4282,12 +4282,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2010/04</t>
+          <t>2010/04/01</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4320,39 +4320,39 @@
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39">
-        <f>CIQ("TSE:"&amp;F3797, "IQ_LASTSALEPRICE", G3797)</f>
+        <f>CIQ("TSE:"&amp;F39, "IQ_LASTSALEPRICE", G39)</f>
         <v/>
       </c>
       <c r="P39">
-        <f>CIQ("TSE:"&amp;F3797, "IQ_LASTSALEPRICE", G3797)</f>
+        <f>CIQ("TSE:"&amp;F39, "IQ_LASTSALEPRICE", G39)</f>
         <v/>
       </c>
       <c r="Q39">
-        <f>CIQ("TSE:"&amp;F3797, "IQ_OPER_INC", IQ_LTM, G3797)</f>
+        <f>CIQ("TSE:"&amp;F39, "IQ_OPER_INC", IQ_LTM, G39)</f>
         <v/>
       </c>
       <c r="R39">
-        <f>CIQ("TSE:"&amp;F3797, "IQ_OPER_INC", IQ_LTM, G3797)</f>
+        <f>CIQ("TSE:"&amp;F39, "IQ_OPER_INC", IQ_LTM, G39)</f>
         <v/>
       </c>
       <c r="S39">
-        <f>CIQ("TSE:"&amp;F3797, "IQ_BASIC_EPS_INCL", IQ_LTM, G3797)</f>
+        <f>CIQ("TSE:"&amp;F39, "IQ_BASIC_EPS_INCL", IQ_LTM, G39)</f>
         <v/>
       </c>
       <c r="T39">
-        <f>CIQ("TSE:"&amp;F3797, "IQ_BASIC_EPS_INCL", IQ_LTM, G3797)</f>
+        <f>CIQ("TSE:"&amp;F39, "IQ_BASIC_EPS_INCL", IQ_LTM, G39)</f>
         <v/>
       </c>
       <c r="U39">
-        <f>(G3797-F3797)/365</f>
+        <f>(G39-F39)/365</f>
         <v/>
       </c>
       <c r="V39">
-        <f>(Q3797/P3797)^(1/T3797)-1</f>
+        <f>(Q39/P39)^(1/T39)-1</f>
         <v/>
       </c>
       <c r="W39">
-        <f>(S3797/R3797)^(1/T3797)-1</f>
+        <f>(S39/R39)^(1/T39)-1</f>
         <v/>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -4386,7 +4386,7 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2024/05</t>
+          <t>2024/05/01</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4409,39 +4409,39 @@
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40">
-        <f>CIQ("TSE:"&amp;F3821, "IQ_LASTSALEPRICE", G3821)</f>
+        <f>CIQ("TSE:"&amp;F40, "IQ_LASTSALEPRICE", G40)</f>
         <v/>
       </c>
       <c r="P40">
-        <f>CIQ("TSE:"&amp;F3821, "IQ_LASTSALEPRICE", G3821)</f>
+        <f>CIQ("TSE:"&amp;F40, "IQ_LASTSALEPRICE", G40)</f>
         <v/>
       </c>
       <c r="Q40">
-        <f>CIQ("TSE:"&amp;F3821, "IQ_OPER_INC", IQ_LTM, G3821)</f>
+        <f>CIQ("TSE:"&amp;F40, "IQ_OPER_INC", IQ_LTM, G40)</f>
         <v/>
       </c>
       <c r="R40">
-        <f>CIQ("TSE:"&amp;F3821, "IQ_OPER_INC", IQ_LTM, G3821)</f>
+        <f>CIQ("TSE:"&amp;F40, "IQ_OPER_INC", IQ_LTM, G40)</f>
         <v/>
       </c>
       <c r="S40">
-        <f>CIQ("TSE:"&amp;F3821, "IQ_BASIC_EPS_INCL", IQ_LTM, G3821)</f>
+        <f>CIQ("TSE:"&amp;F40, "IQ_BASIC_EPS_INCL", IQ_LTM, G40)</f>
         <v/>
       </c>
       <c r="T40">
-        <f>CIQ("TSE:"&amp;F3821, "IQ_BASIC_EPS_INCL", IQ_LTM, G3821)</f>
+        <f>CIQ("TSE:"&amp;F40, "IQ_BASIC_EPS_INCL", IQ_LTM, G40)</f>
         <v/>
       </c>
       <c r="U40">
-        <f>(G3821-F3821)/365</f>
+        <f>(G40-F40)/365</f>
         <v/>
       </c>
       <c r="V40">
-        <f>(Q3821/P3821)^(1/T3821)-1</f>
+        <f>(Q40/P40)^(1/T40)-1</f>
         <v/>
       </c>
       <c r="W40">
-        <f>(S3821/R3821)^(1/T3821)-1</f>
+        <f>(S40/R40)^(1/T40)-1</f>
         <v/>
       </c>
       <c r="X40" t="inlineStr"/>
@@ -4474,12 +4474,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022/06</t>
+          <t>2022/06/01</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4508,39 +4508,39 @@
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41">
-        <f>CIQ("TSE:"&amp;F4299, "IQ_LASTSALEPRICE", G4299)</f>
+        <f>CIQ("TSE:"&amp;F41, "IQ_LASTSALEPRICE", G41)</f>
         <v/>
       </c>
       <c r="P41">
-        <f>CIQ("TSE:"&amp;F4299, "IQ_LASTSALEPRICE", G4299)</f>
+        <f>CIQ("TSE:"&amp;F41, "IQ_LASTSALEPRICE", G41)</f>
         <v/>
       </c>
       <c r="Q41">
-        <f>CIQ("TSE:"&amp;F4299, "IQ_OPER_INC", IQ_LTM, G4299)</f>
+        <f>CIQ("TSE:"&amp;F41, "IQ_OPER_INC", IQ_LTM, G41)</f>
         <v/>
       </c>
       <c r="R41">
-        <f>CIQ("TSE:"&amp;F4299, "IQ_OPER_INC", IQ_LTM, G4299)</f>
+        <f>CIQ("TSE:"&amp;F41, "IQ_OPER_INC", IQ_LTM, G41)</f>
         <v/>
       </c>
       <c r="S41">
-        <f>CIQ("TSE:"&amp;F4299, "IQ_BASIC_EPS_INCL", IQ_LTM, G4299)</f>
+        <f>CIQ("TSE:"&amp;F41, "IQ_BASIC_EPS_INCL", IQ_LTM, G41)</f>
         <v/>
       </c>
       <c r="T41">
-        <f>CIQ("TSE:"&amp;F4299, "IQ_BASIC_EPS_INCL", IQ_LTM, G4299)</f>
+        <f>CIQ("TSE:"&amp;F41, "IQ_BASIC_EPS_INCL", IQ_LTM, G41)</f>
         <v/>
       </c>
       <c r="U41">
-        <f>(G4299-F4299)/365</f>
+        <f>(G41-F41)/365</f>
         <v/>
       </c>
       <c r="V41">
-        <f>(Q4299/P4299)^(1/T4299)-1</f>
+        <f>(Q41/P41)^(1/T41)-1</f>
         <v/>
       </c>
       <c r="W41">
-        <f>(S4299/R4299)^(1/T4299)-1</f>
+        <f>(S41/R41)^(1/T41)-1</f>
         <v/>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -4573,12 +4573,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2017/06</t>
+          <t>2017/06/01</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -4607,39 +4607,39 @@
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42">
-        <f>CIQ("TSE:"&amp;F4300, "IQ_LASTSALEPRICE", G4300)</f>
+        <f>CIQ("TSE:"&amp;F42, "IQ_LASTSALEPRICE", G42)</f>
         <v/>
       </c>
       <c r="P42">
-        <f>CIQ("TSE:"&amp;F4300, "IQ_LASTSALEPRICE", G4300)</f>
+        <f>CIQ("TSE:"&amp;F42, "IQ_LASTSALEPRICE", G42)</f>
         <v/>
       </c>
       <c r="Q42">
-        <f>CIQ("TSE:"&amp;F4300, "IQ_OPER_INC", IQ_LTM, G4300)</f>
+        <f>CIQ("TSE:"&amp;F42, "IQ_OPER_INC", IQ_LTM, G42)</f>
         <v/>
       </c>
       <c r="R42">
-        <f>CIQ("TSE:"&amp;F4300, "IQ_OPER_INC", IQ_LTM, G4300)</f>
+        <f>CIQ("TSE:"&amp;F42, "IQ_OPER_INC", IQ_LTM, G42)</f>
         <v/>
       </c>
       <c r="S42">
-        <f>CIQ("TSE:"&amp;F4300, "IQ_BASIC_EPS_INCL", IQ_LTM, G4300)</f>
+        <f>CIQ("TSE:"&amp;F42, "IQ_BASIC_EPS_INCL", IQ_LTM, G42)</f>
         <v/>
       </c>
       <c r="T42">
-        <f>CIQ("TSE:"&amp;F4300, "IQ_BASIC_EPS_INCL", IQ_LTM, G4300)</f>
+        <f>CIQ("TSE:"&amp;F42, "IQ_BASIC_EPS_INCL", IQ_LTM, G42)</f>
         <v/>
       </c>
       <c r="U42">
-        <f>(G4300-F4300)/365</f>
+        <f>(G42-F42)/365</f>
         <v/>
       </c>
       <c r="V42">
-        <f>(Q4300/P4300)^(1/T4300)-1</f>
+        <f>(Q42/P42)^(1/T42)-1</f>
         <v/>
       </c>
       <c r="W42">
-        <f>(S4300/R4300)^(1/T4300)-1</f>
+        <f>(S42/R42)^(1/T42)-1</f>
         <v/>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -4672,12 +4672,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1989/04</t>
+          <t>1989/04/01</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -4710,39 +4710,39 @@
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43">
-        <f>CIQ("TSE:"&amp;F4362, "IQ_LASTSALEPRICE", G4362)</f>
+        <f>CIQ("TSE:"&amp;F43, "IQ_LASTSALEPRICE", G43)</f>
         <v/>
       </c>
       <c r="P43">
-        <f>CIQ("TSE:"&amp;F4362, "IQ_LASTSALEPRICE", G4362)</f>
+        <f>CIQ("TSE:"&amp;F43, "IQ_LASTSALEPRICE", G43)</f>
         <v/>
       </c>
       <c r="Q43">
-        <f>CIQ("TSE:"&amp;F4362, "IQ_OPER_INC", IQ_LTM, G4362)</f>
+        <f>CIQ("TSE:"&amp;F43, "IQ_OPER_INC", IQ_LTM, G43)</f>
         <v/>
       </c>
       <c r="R43">
-        <f>CIQ("TSE:"&amp;F4362, "IQ_OPER_INC", IQ_LTM, G4362)</f>
+        <f>CIQ("TSE:"&amp;F43, "IQ_OPER_INC", IQ_LTM, G43)</f>
         <v/>
       </c>
       <c r="S43">
-        <f>CIQ("TSE:"&amp;F4362, "IQ_BASIC_EPS_INCL", IQ_LTM, G4362)</f>
+        <f>CIQ("TSE:"&amp;F43, "IQ_BASIC_EPS_INCL", IQ_LTM, G43)</f>
         <v/>
       </c>
       <c r="T43">
-        <f>CIQ("TSE:"&amp;F4362, "IQ_BASIC_EPS_INCL", IQ_LTM, G4362)</f>
+        <f>CIQ("TSE:"&amp;F43, "IQ_BASIC_EPS_INCL", IQ_LTM, G43)</f>
         <v/>
       </c>
       <c r="U43">
-        <f>(G4362-F4362)/365</f>
+        <f>(G43-F43)/365</f>
         <v/>
       </c>
       <c r="V43">
-        <f>(Q4362/P4362)^(1/T4362)-1</f>
+        <f>(Q43/P43)^(1/T43)-1</f>
         <v/>
       </c>
       <c r="W43">
-        <f>(S4362/R4362)^(1/T4362)-1</f>
+        <f>(S43/R43)^(1/T43)-1</f>
         <v/>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -4775,12 +4775,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2020/12</t>
+          <t>2020/12/01</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -4813,39 +4813,39 @@
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44">
-        <f>CIQ("TSE:"&amp;F4540, "IQ_LASTSALEPRICE", G4540)</f>
+        <f>CIQ("TSE:"&amp;F44, "IQ_LASTSALEPRICE", G44)</f>
         <v/>
       </c>
       <c r="P44">
-        <f>CIQ("TSE:"&amp;F4540, "IQ_LASTSALEPRICE", G4540)</f>
+        <f>CIQ("TSE:"&amp;F44, "IQ_LASTSALEPRICE", G44)</f>
         <v/>
       </c>
       <c r="Q44">
-        <f>CIQ("TSE:"&amp;F4540, "IQ_OPER_INC", IQ_LTM, G4540)</f>
+        <f>CIQ("TSE:"&amp;F44, "IQ_OPER_INC", IQ_LTM, G44)</f>
         <v/>
       </c>
       <c r="R44">
-        <f>CIQ("TSE:"&amp;F4540, "IQ_OPER_INC", IQ_LTM, G4540)</f>
+        <f>CIQ("TSE:"&amp;F44, "IQ_OPER_INC", IQ_LTM, G44)</f>
         <v/>
       </c>
       <c r="S44">
-        <f>CIQ("TSE:"&amp;F4540, "IQ_BASIC_EPS_INCL", IQ_LTM, G4540)</f>
+        <f>CIQ("TSE:"&amp;F44, "IQ_BASIC_EPS_INCL", IQ_LTM, G44)</f>
         <v/>
       </c>
       <c r="T44">
-        <f>CIQ("TSE:"&amp;F4540, "IQ_BASIC_EPS_INCL", IQ_LTM, G4540)</f>
+        <f>CIQ("TSE:"&amp;F44, "IQ_BASIC_EPS_INCL", IQ_LTM, G44)</f>
         <v/>
       </c>
       <c r="U44">
-        <f>(G4540-F4540)/365</f>
+        <f>(G44-F44)/365</f>
         <v/>
       </c>
       <c r="V44">
-        <f>(Q4540/P4540)^(1/T4540)-1</f>
+        <f>(Q44/P44)^(1/T44)-1</f>
         <v/>
       </c>
       <c r="W44">
-        <f>(S4540/R4540)^(1/T4540)-1</f>
+        <f>(S44/R44)^(1/T44)-1</f>
         <v/>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -4878,12 +4878,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2017/04</t>
+          <t>2017/04/01</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4916,39 +4916,39 @@
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45">
-        <f>CIQ("TSE:"&amp;F4547, "IQ_LASTSALEPRICE", G4547)</f>
+        <f>CIQ("TSE:"&amp;F45, "IQ_LASTSALEPRICE", G45)</f>
         <v/>
       </c>
       <c r="P45">
-        <f>CIQ("TSE:"&amp;F4547, "IQ_LASTSALEPRICE", G4547)</f>
+        <f>CIQ("TSE:"&amp;F45, "IQ_LASTSALEPRICE", G45)</f>
         <v/>
       </c>
       <c r="Q45">
-        <f>CIQ("TSE:"&amp;F4547, "IQ_OPER_INC", IQ_LTM, G4547)</f>
+        <f>CIQ("TSE:"&amp;F45, "IQ_OPER_INC", IQ_LTM, G45)</f>
         <v/>
       </c>
       <c r="R45">
-        <f>CIQ("TSE:"&amp;F4547, "IQ_OPER_INC", IQ_LTM, G4547)</f>
+        <f>CIQ("TSE:"&amp;F45, "IQ_OPER_INC", IQ_LTM, G45)</f>
         <v/>
       </c>
       <c r="S45">
-        <f>CIQ("TSE:"&amp;F4547, "IQ_BASIC_EPS_INCL", IQ_LTM, G4547)</f>
+        <f>CIQ("TSE:"&amp;F45, "IQ_BASIC_EPS_INCL", IQ_LTM, G45)</f>
         <v/>
       </c>
       <c r="T45">
-        <f>CIQ("TSE:"&amp;F4547, "IQ_BASIC_EPS_INCL", IQ_LTM, G4547)</f>
+        <f>CIQ("TSE:"&amp;F45, "IQ_BASIC_EPS_INCL", IQ_LTM, G45)</f>
         <v/>
       </c>
       <c r="U45">
-        <f>(G4547-F4547)/365</f>
+        <f>(G45-F45)/365</f>
         <v/>
       </c>
       <c r="V45">
-        <f>(Q4547/P4547)^(1/T4547)-1</f>
+        <f>(Q45/P45)^(1/T45)-1</f>
         <v/>
       </c>
       <c r="W45">
-        <f>(S4547/R4547)^(1/T4547)-1</f>
+        <f>(S45/R45)^(1/T45)-1</f>
         <v/>
       </c>
       <c r="X45" t="inlineStr"/>
@@ -4981,12 +4981,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022/04</t>
+          <t>2022/04/01</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -5015,39 +5015,39 @@
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46">
-        <f>CIQ("TSE:"&amp;F4730, "IQ_LASTSALEPRICE", G4730)</f>
+        <f>CIQ("TSE:"&amp;F46, "IQ_LASTSALEPRICE", G46)</f>
         <v/>
       </c>
       <c r="P46">
-        <f>CIQ("TSE:"&amp;F4730, "IQ_LASTSALEPRICE", G4730)</f>
+        <f>CIQ("TSE:"&amp;F46, "IQ_LASTSALEPRICE", G46)</f>
         <v/>
       </c>
       <c r="Q46">
-        <f>CIQ("TSE:"&amp;F4730, "IQ_OPER_INC", IQ_LTM, G4730)</f>
+        <f>CIQ("TSE:"&amp;F46, "IQ_OPER_INC", IQ_LTM, G46)</f>
         <v/>
       </c>
       <c r="R46">
-        <f>CIQ("TSE:"&amp;F4730, "IQ_OPER_INC", IQ_LTM, G4730)</f>
+        <f>CIQ("TSE:"&amp;F46, "IQ_OPER_INC", IQ_LTM, G46)</f>
         <v/>
       </c>
       <c r="S46">
-        <f>CIQ("TSE:"&amp;F4730, "IQ_BASIC_EPS_INCL", IQ_LTM, G4730)</f>
+        <f>CIQ("TSE:"&amp;F46, "IQ_BASIC_EPS_INCL", IQ_LTM, G46)</f>
         <v/>
       </c>
       <c r="T46">
-        <f>CIQ("TSE:"&amp;F4730, "IQ_BASIC_EPS_INCL", IQ_LTM, G4730)</f>
+        <f>CIQ("TSE:"&amp;F46, "IQ_BASIC_EPS_INCL", IQ_LTM, G46)</f>
         <v/>
       </c>
       <c r="U46">
-        <f>(G4730-F4730)/365</f>
+        <f>(G46-F46)/365</f>
         <v/>
       </c>
       <c r="V46">
-        <f>(Q4730/P4730)^(1/T4730)-1</f>
+        <f>(Q46/P46)^(1/T46)-1</f>
         <v/>
       </c>
       <c r="W46">
-        <f>(S4730/R4730)^(1/T4730)-1</f>
+        <f>(S46/R46)^(1/T46)-1</f>
         <v/>
       </c>
       <c r="X46" t="inlineStr"/>
@@ -5080,12 +5080,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023/06</t>
+          <t>2023/06/01</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -5114,39 +5114,39 @@
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47">
-        <f>CIQ("TSE:"&amp;F4785, "IQ_LASTSALEPRICE", G4785)</f>
+        <f>CIQ("TSE:"&amp;F47, "IQ_LASTSALEPRICE", G47)</f>
         <v/>
       </c>
       <c r="P47">
-        <f>CIQ("TSE:"&amp;F4785, "IQ_LASTSALEPRICE", G4785)</f>
+        <f>CIQ("TSE:"&amp;F47, "IQ_LASTSALEPRICE", G47)</f>
         <v/>
       </c>
       <c r="Q47">
-        <f>CIQ("TSE:"&amp;F4785, "IQ_OPER_INC", IQ_LTM, G4785)</f>
+        <f>CIQ("TSE:"&amp;F47, "IQ_OPER_INC", IQ_LTM, G47)</f>
         <v/>
       </c>
       <c r="R47">
-        <f>CIQ("TSE:"&amp;F4785, "IQ_OPER_INC", IQ_LTM, G4785)</f>
+        <f>CIQ("TSE:"&amp;F47, "IQ_OPER_INC", IQ_LTM, G47)</f>
         <v/>
       </c>
       <c r="S47">
-        <f>CIQ("TSE:"&amp;F4785, "IQ_BASIC_EPS_INCL", IQ_LTM, G4785)</f>
+        <f>CIQ("TSE:"&amp;F47, "IQ_BASIC_EPS_INCL", IQ_LTM, G47)</f>
         <v/>
       </c>
       <c r="T47">
-        <f>CIQ("TSE:"&amp;F4785, "IQ_BASIC_EPS_INCL", IQ_LTM, G4785)</f>
+        <f>CIQ("TSE:"&amp;F47, "IQ_BASIC_EPS_INCL", IQ_LTM, G47)</f>
         <v/>
       </c>
       <c r="U47">
-        <f>(G4785-F4785)/365</f>
+        <f>(G47-F47)/365</f>
         <v/>
       </c>
       <c r="V47">
-        <f>(Q4785/P4785)^(1/T4785)-1</f>
+        <f>(Q47/P47)^(1/T47)-1</f>
         <v/>
       </c>
       <c r="W47">
-        <f>(S4785/R4785)^(1/T4785)-1</f>
+        <f>(S47/R47)^(1/T47)-1</f>
         <v/>
       </c>
       <c r="X47" t="inlineStr"/>
@@ -5179,12 +5179,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2013/04</t>
+          <t>2013/04/01</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -5217,39 +5217,39 @@
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48">
-        <f>CIQ("TSE:"&amp;F4910, "IQ_LASTSALEPRICE", G4910)</f>
+        <f>CIQ("TSE:"&amp;F48, "IQ_LASTSALEPRICE", G48)</f>
         <v/>
       </c>
       <c r="P48">
-        <f>CIQ("TSE:"&amp;F4910, "IQ_LASTSALEPRICE", G4910)</f>
+        <f>CIQ("TSE:"&amp;F48, "IQ_LASTSALEPRICE", G48)</f>
         <v/>
       </c>
       <c r="Q48">
-        <f>CIQ("TSE:"&amp;F4910, "IQ_OPER_INC", IQ_LTM, G4910)</f>
+        <f>CIQ("TSE:"&amp;F48, "IQ_OPER_INC", IQ_LTM, G48)</f>
         <v/>
       </c>
       <c r="R48">
-        <f>CIQ("TSE:"&amp;F4910, "IQ_OPER_INC", IQ_LTM, G4910)</f>
+        <f>CIQ("TSE:"&amp;F48, "IQ_OPER_INC", IQ_LTM, G48)</f>
         <v/>
       </c>
       <c r="S48">
-        <f>CIQ("TSE:"&amp;F4910, "IQ_BASIC_EPS_INCL", IQ_LTM, G4910)</f>
+        <f>CIQ("TSE:"&amp;F48, "IQ_BASIC_EPS_INCL", IQ_LTM, G48)</f>
         <v/>
       </c>
       <c r="T48">
-        <f>CIQ("TSE:"&amp;F4910, "IQ_BASIC_EPS_INCL", IQ_LTM, G4910)</f>
+        <f>CIQ("TSE:"&amp;F48, "IQ_BASIC_EPS_INCL", IQ_LTM, G48)</f>
         <v/>
       </c>
       <c r="U48">
-        <f>(G4910-F4910)/365</f>
+        <f>(G48-F48)/365</f>
         <v/>
       </c>
       <c r="V48">
-        <f>(Q4910/P4910)^(1/T4910)-1</f>
+        <f>(Q48/P48)^(1/T48)-1</f>
         <v/>
       </c>
       <c r="W48">
-        <f>(S4910/R4910)^(1/T4910)-1</f>
+        <f>(S48/R48)^(1/T48)-1</f>
         <v/>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -5282,12 +5282,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021/10</t>
+          <t>2021/10/01</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -5316,39 +5316,39 @@
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49">
-        <f>CIQ("TSE:"&amp;F4994, "IQ_LASTSALEPRICE", G4994)</f>
+        <f>CIQ("TSE:"&amp;F49, "IQ_LASTSALEPRICE", G49)</f>
         <v/>
       </c>
       <c r="P49">
-        <f>CIQ("TSE:"&amp;F4994, "IQ_LASTSALEPRICE", G4994)</f>
+        <f>CIQ("TSE:"&amp;F49, "IQ_LASTSALEPRICE", G49)</f>
         <v/>
       </c>
       <c r="Q49">
-        <f>CIQ("TSE:"&amp;F4994, "IQ_OPER_INC", IQ_LTM, G4994)</f>
+        <f>CIQ("TSE:"&amp;F49, "IQ_OPER_INC", IQ_LTM, G49)</f>
         <v/>
       </c>
       <c r="R49">
-        <f>CIQ("TSE:"&amp;F4994, "IQ_OPER_INC", IQ_LTM, G4994)</f>
+        <f>CIQ("TSE:"&amp;F49, "IQ_OPER_INC", IQ_LTM, G49)</f>
         <v/>
       </c>
       <c r="S49">
-        <f>CIQ("TSE:"&amp;F4994, "IQ_BASIC_EPS_INCL", IQ_LTM, G4994)</f>
+        <f>CIQ("TSE:"&amp;F49, "IQ_BASIC_EPS_INCL", IQ_LTM, G49)</f>
         <v/>
       </c>
       <c r="T49">
-        <f>CIQ("TSE:"&amp;F4994, "IQ_BASIC_EPS_INCL", IQ_LTM, G4994)</f>
+        <f>CIQ("TSE:"&amp;F49, "IQ_BASIC_EPS_INCL", IQ_LTM, G49)</f>
         <v/>
       </c>
       <c r="U49">
-        <f>(G4994-F4994)/365</f>
+        <f>(G49-F49)/365</f>
         <v/>
       </c>
       <c r="V49">
-        <f>(Q4994/P4994)^(1/T4994)-1</f>
+        <f>(Q49/P49)^(1/T49)-1</f>
         <v/>
       </c>
       <c r="W49">
-        <f>(S4994/R4994)^(1/T4994)-1</f>
+        <f>(S49/R49)^(1/T49)-1</f>
         <v/>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -5381,12 +5381,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021/07</t>
+          <t>2021/07/01</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -5415,39 +5415,39 @@
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50">
-        <f>CIQ("TSE:"&amp;F4995, "IQ_LASTSALEPRICE", G4995)</f>
+        <f>CIQ("TSE:"&amp;F50, "IQ_LASTSALEPRICE", G50)</f>
         <v/>
       </c>
       <c r="P50">
-        <f>CIQ("TSE:"&amp;F4995, "IQ_LASTSALEPRICE", G4995)</f>
+        <f>CIQ("TSE:"&amp;F50, "IQ_LASTSALEPRICE", G50)</f>
         <v/>
       </c>
       <c r="Q50">
-        <f>CIQ("TSE:"&amp;F4995, "IQ_OPER_INC", IQ_LTM, G4995)</f>
+        <f>CIQ("TSE:"&amp;F50, "IQ_OPER_INC", IQ_LTM, G50)</f>
         <v/>
       </c>
       <c r="R50">
-        <f>CIQ("TSE:"&amp;F4995, "IQ_OPER_INC", IQ_LTM, G4995)</f>
+        <f>CIQ("TSE:"&amp;F50, "IQ_OPER_INC", IQ_LTM, G50)</f>
         <v/>
       </c>
       <c r="S50">
-        <f>CIQ("TSE:"&amp;F4995, "IQ_BASIC_EPS_INCL", IQ_LTM, G4995)</f>
+        <f>CIQ("TSE:"&amp;F50, "IQ_BASIC_EPS_INCL", IQ_LTM, G50)</f>
         <v/>
       </c>
       <c r="T50">
-        <f>CIQ("TSE:"&amp;F4995, "IQ_BASIC_EPS_INCL", IQ_LTM, G4995)</f>
+        <f>CIQ("TSE:"&amp;F50, "IQ_BASIC_EPS_INCL", IQ_LTM, G50)</f>
         <v/>
       </c>
       <c r="U50">
-        <f>(G4995-F4995)/365</f>
+        <f>(G50-F50)/365</f>
         <v/>
       </c>
       <c r="V50">
-        <f>(Q4995/P4995)^(1/T4995)-1</f>
+        <f>(Q50/P50)^(1/T50)-1</f>
         <v/>
       </c>
       <c r="W50">
-        <f>(S4995/R4995)^(1/T4995)-1</f>
+        <f>(S50/R50)^(1/T50)-1</f>
         <v/>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -5480,12 +5480,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2020/04</t>
+          <t>2020/04/01</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -5518,39 +5518,39 @@
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51">
-        <f>CIQ("TSE:"&amp;F5000, "IQ_LASTSALEPRICE", G5000)</f>
+        <f>CIQ("TSE:"&amp;F51, "IQ_LASTSALEPRICE", G51)</f>
         <v/>
       </c>
       <c r="P51">
-        <f>CIQ("TSE:"&amp;F5000, "IQ_LASTSALEPRICE", G5000)</f>
+        <f>CIQ("TSE:"&amp;F51, "IQ_LASTSALEPRICE", G51)</f>
         <v/>
       </c>
       <c r="Q51">
-        <f>CIQ("TSE:"&amp;F5000, "IQ_OPER_INC", IQ_LTM, G5000)</f>
+        <f>CIQ("TSE:"&amp;F51, "IQ_OPER_INC", IQ_LTM, G51)</f>
         <v/>
       </c>
       <c r="R51">
-        <f>CIQ("TSE:"&amp;F5000, "IQ_OPER_INC", IQ_LTM, G5000)</f>
+        <f>CIQ("TSE:"&amp;F51, "IQ_OPER_INC", IQ_LTM, G51)</f>
         <v/>
       </c>
       <c r="S51">
-        <f>CIQ("TSE:"&amp;F5000, "IQ_BASIC_EPS_INCL", IQ_LTM, G5000)</f>
+        <f>CIQ("TSE:"&amp;F51, "IQ_BASIC_EPS_INCL", IQ_LTM, G51)</f>
         <v/>
       </c>
       <c r="T51">
-        <f>CIQ("TSE:"&amp;F5000, "IQ_BASIC_EPS_INCL", IQ_LTM, G5000)</f>
+        <f>CIQ("TSE:"&amp;F51, "IQ_BASIC_EPS_INCL", IQ_LTM, G51)</f>
         <v/>
       </c>
       <c r="U51">
-        <f>(G5000-F5000)/365</f>
+        <f>(G51-F51)/365</f>
         <v/>
       </c>
       <c r="V51">
-        <f>(Q5000/P5000)^(1/T5000)-1</f>
+        <f>(Q51/P51)^(1/T51)-1</f>
         <v/>
       </c>
       <c r="W51">
-        <f>(S5000/R5000)^(1/T5000)-1</f>
+        <f>(S51/R51)^(1/T51)-1</f>
         <v/>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -5583,12 +5583,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1986/01</t>
+          <t>1986/01/01</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -5621,39 +5621,39 @@
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52">
-        <f>CIQ("TSE:"&amp;F5207, "IQ_LASTSALEPRICE", G5207)</f>
+        <f>CIQ("TSE:"&amp;F52, "IQ_LASTSALEPRICE", G52)</f>
         <v/>
       </c>
       <c r="P52">
-        <f>CIQ("TSE:"&amp;F5207, "IQ_LASTSALEPRICE", G5207)</f>
+        <f>CIQ("TSE:"&amp;F52, "IQ_LASTSALEPRICE", G52)</f>
         <v/>
       </c>
       <c r="Q52">
-        <f>CIQ("TSE:"&amp;F5207, "IQ_OPER_INC", IQ_LTM, G5207)</f>
+        <f>CIQ("TSE:"&amp;F52, "IQ_OPER_INC", IQ_LTM, G52)</f>
         <v/>
       </c>
       <c r="R52">
-        <f>CIQ("TSE:"&amp;F5207, "IQ_OPER_INC", IQ_LTM, G5207)</f>
+        <f>CIQ("TSE:"&amp;F52, "IQ_OPER_INC", IQ_LTM, G52)</f>
         <v/>
       </c>
       <c r="S52">
-        <f>CIQ("TSE:"&amp;F5207, "IQ_BASIC_EPS_INCL", IQ_LTM, G5207)</f>
+        <f>CIQ("TSE:"&amp;F52, "IQ_BASIC_EPS_INCL", IQ_LTM, G52)</f>
         <v/>
       </c>
       <c r="T52">
-        <f>CIQ("TSE:"&amp;F5207, "IQ_BASIC_EPS_INCL", IQ_LTM, G5207)</f>
+        <f>CIQ("TSE:"&amp;F52, "IQ_BASIC_EPS_INCL", IQ_LTM, G52)</f>
         <v/>
       </c>
       <c r="U52">
-        <f>(G5207-F5207)/365</f>
+        <f>(G52-F52)/365</f>
         <v/>
       </c>
       <c r="V52">
-        <f>(Q5207/P5207)^(1/T5207)-1</f>
+        <f>(Q52/P52)^(1/T52)-1</f>
         <v/>
       </c>
       <c r="W52">
-        <f>(S5207/R5207)^(1/T5207)-1</f>
+        <f>(S52/R52)^(1/T52)-1</f>
         <v/>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -5686,12 +5686,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1983/04</t>
+          <t>1983/04/01</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2024/05</t>
+          <t>2024/05/01</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -5724,39 +5724,39 @@
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53">
-        <f>CIQ("TSE:"&amp;F5362, "IQ_LASTSALEPRICE", G5362)</f>
+        <f>CIQ("TSE:"&amp;F53, "IQ_LASTSALEPRICE", G53)</f>
         <v/>
       </c>
       <c r="P53">
-        <f>CIQ("TSE:"&amp;F5362, "IQ_LASTSALEPRICE", G5362)</f>
+        <f>CIQ("TSE:"&amp;F53, "IQ_LASTSALEPRICE", G53)</f>
         <v/>
       </c>
       <c r="Q53">
-        <f>CIQ("TSE:"&amp;F5362, "IQ_OPER_INC", IQ_LTM, G5362)</f>
+        <f>CIQ("TSE:"&amp;F53, "IQ_OPER_INC", IQ_LTM, G53)</f>
         <v/>
       </c>
       <c r="R53">
-        <f>CIQ("TSE:"&amp;F5362, "IQ_OPER_INC", IQ_LTM, G5362)</f>
+        <f>CIQ("TSE:"&amp;F53, "IQ_OPER_INC", IQ_LTM, G53)</f>
         <v/>
       </c>
       <c r="S53">
-        <f>CIQ("TSE:"&amp;F5362, "IQ_BASIC_EPS_INCL", IQ_LTM, G5362)</f>
+        <f>CIQ("TSE:"&amp;F53, "IQ_BASIC_EPS_INCL", IQ_LTM, G53)</f>
         <v/>
       </c>
       <c r="T53">
-        <f>CIQ("TSE:"&amp;F5362, "IQ_BASIC_EPS_INCL", IQ_LTM, G5362)</f>
+        <f>CIQ("TSE:"&amp;F53, "IQ_BASIC_EPS_INCL", IQ_LTM, G53)</f>
         <v/>
       </c>
       <c r="U53">
-        <f>(G5362-F5362)/365</f>
+        <f>(G53-F53)/365</f>
         <v/>
       </c>
       <c r="V53">
-        <f>(Q5362/P5362)^(1/T5362)-1</f>
+        <f>(Q53/P53)^(1/T53)-1</f>
         <v/>
       </c>
       <c r="W53">
-        <f>(S5362/R5362)^(1/T5362)-1</f>
+        <f>(S53/R53)^(1/T53)-1</f>
         <v/>
       </c>
       <c r="X53" t="inlineStr"/>
@@ -5789,12 +5789,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021/04</t>
+          <t>2021/04/01</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -5823,39 +5823,39 @@
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54">
-        <f>CIQ("TSE:"&amp;F5490, "IQ_LASTSALEPRICE", G5490)</f>
+        <f>CIQ("TSE:"&amp;F54, "IQ_LASTSALEPRICE", G54)</f>
         <v/>
       </c>
       <c r="P54">
-        <f>CIQ("TSE:"&amp;F5490, "IQ_LASTSALEPRICE", G5490)</f>
+        <f>CIQ("TSE:"&amp;F54, "IQ_LASTSALEPRICE", G54)</f>
         <v/>
       </c>
       <c r="Q54">
-        <f>CIQ("TSE:"&amp;F5490, "IQ_OPER_INC", IQ_LTM, G5490)</f>
+        <f>CIQ("TSE:"&amp;F54, "IQ_OPER_INC", IQ_LTM, G54)</f>
         <v/>
       </c>
       <c r="R54">
-        <f>CIQ("TSE:"&amp;F5490, "IQ_OPER_INC", IQ_LTM, G5490)</f>
+        <f>CIQ("TSE:"&amp;F54, "IQ_OPER_INC", IQ_LTM, G54)</f>
         <v/>
       </c>
       <c r="S54">
-        <f>CIQ("TSE:"&amp;F5490, "IQ_BASIC_EPS_INCL", IQ_LTM, G5490)</f>
+        <f>CIQ("TSE:"&amp;F54, "IQ_BASIC_EPS_INCL", IQ_LTM, G54)</f>
         <v/>
       </c>
       <c r="T54">
-        <f>CIQ("TSE:"&amp;F5490, "IQ_BASIC_EPS_INCL", IQ_LTM, G5490)</f>
+        <f>CIQ("TSE:"&amp;F54, "IQ_BASIC_EPS_INCL", IQ_LTM, G54)</f>
         <v/>
       </c>
       <c r="U54">
-        <f>(G5490-F5490)/365</f>
+        <f>(G54-F54)/365</f>
         <v/>
       </c>
       <c r="V54">
-        <f>(Q5490/P5490)^(1/T5490)-1</f>
+        <f>(Q54/P54)^(1/T54)-1</f>
         <v/>
       </c>
       <c r="W54">
-        <f>(S5490/R5490)^(1/T5490)-1</f>
+        <f>(S54/R54)^(1/T54)-1</f>
         <v/>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -5888,12 +5888,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021/04</t>
+          <t>2021/04/01</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -5922,39 +5922,39 @@
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55">
-        <f>CIQ("TSE:"&amp;F5491, "IQ_LASTSALEPRICE", G5491)</f>
+        <f>CIQ("TSE:"&amp;F55, "IQ_LASTSALEPRICE", G55)</f>
         <v/>
       </c>
       <c r="P55">
-        <f>CIQ("TSE:"&amp;F5491, "IQ_LASTSALEPRICE", G5491)</f>
+        <f>CIQ("TSE:"&amp;F55, "IQ_LASTSALEPRICE", G55)</f>
         <v/>
       </c>
       <c r="Q55">
-        <f>CIQ("TSE:"&amp;F5491, "IQ_OPER_INC", IQ_LTM, G5491)</f>
+        <f>CIQ("TSE:"&amp;F55, "IQ_OPER_INC", IQ_LTM, G55)</f>
         <v/>
       </c>
       <c r="R55">
-        <f>CIQ("TSE:"&amp;F5491, "IQ_OPER_INC", IQ_LTM, G5491)</f>
+        <f>CIQ("TSE:"&amp;F55, "IQ_OPER_INC", IQ_LTM, G55)</f>
         <v/>
       </c>
       <c r="S55">
-        <f>CIQ("TSE:"&amp;F5491, "IQ_BASIC_EPS_INCL", IQ_LTM, G5491)</f>
+        <f>CIQ("TSE:"&amp;F55, "IQ_BASIC_EPS_INCL", IQ_LTM, G55)</f>
         <v/>
       </c>
       <c r="T55">
-        <f>CIQ("TSE:"&amp;F5491, "IQ_BASIC_EPS_INCL", IQ_LTM, G5491)</f>
+        <f>CIQ("TSE:"&amp;F55, "IQ_BASIC_EPS_INCL", IQ_LTM, G55)</f>
         <v/>
       </c>
       <c r="U55">
-        <f>(G5491-F5491)/365</f>
+        <f>(G55-F55)/365</f>
         <v/>
       </c>
       <c r="V55">
-        <f>(Q5491/P5491)^(1/T5491)-1</f>
+        <f>(Q55/P55)^(1/T55)-1</f>
         <v/>
       </c>
       <c r="W55">
-        <f>(S5491/R5491)^(1/T5491)-1</f>
+        <f>(S55/R55)^(1/T55)-1</f>
         <v/>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -5987,12 +5987,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021/04</t>
+          <t>2021/04/01</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -6021,39 +6021,39 @@
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56">
-        <f>CIQ("TSE:"&amp;F5501, "IQ_LASTSALEPRICE", G5501)</f>
+        <f>CIQ("TSE:"&amp;F56, "IQ_LASTSALEPRICE", G56)</f>
         <v/>
       </c>
       <c r="P56">
-        <f>CIQ("TSE:"&amp;F5501, "IQ_LASTSALEPRICE", G5501)</f>
+        <f>CIQ("TSE:"&amp;F56, "IQ_LASTSALEPRICE", G56)</f>
         <v/>
       </c>
       <c r="Q56">
-        <f>CIQ("TSE:"&amp;F5501, "IQ_OPER_INC", IQ_LTM, G5501)</f>
+        <f>CIQ("TSE:"&amp;F56, "IQ_OPER_INC", IQ_LTM, G56)</f>
         <v/>
       </c>
       <c r="R56">
-        <f>CIQ("TSE:"&amp;F5501, "IQ_OPER_INC", IQ_LTM, G5501)</f>
+        <f>CIQ("TSE:"&amp;F56, "IQ_OPER_INC", IQ_LTM, G56)</f>
         <v/>
       </c>
       <c r="S56">
-        <f>CIQ("TSE:"&amp;F5501, "IQ_BASIC_EPS_INCL", IQ_LTM, G5501)</f>
+        <f>CIQ("TSE:"&amp;F56, "IQ_BASIC_EPS_INCL", IQ_LTM, G56)</f>
         <v/>
       </c>
       <c r="T56">
-        <f>CIQ("TSE:"&amp;F5501, "IQ_BASIC_EPS_INCL", IQ_LTM, G5501)</f>
+        <f>CIQ("TSE:"&amp;F56, "IQ_BASIC_EPS_INCL", IQ_LTM, G56)</f>
         <v/>
       </c>
       <c r="U56">
-        <f>(G5501-F5501)/365</f>
+        <f>(G56-F56)/365</f>
         <v/>
       </c>
       <c r="V56">
-        <f>(Q5501/P5501)^(1/T5501)-1</f>
+        <f>(Q56/P56)^(1/T56)-1</f>
         <v/>
       </c>
       <c r="W56">
-        <f>(S5501/R5501)^(1/T5501)-1</f>
+        <f>(S56/R56)^(1/T56)-1</f>
         <v/>
       </c>
       <c r="X56" t="inlineStr"/>
@@ -6086,12 +6086,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1993/04</t>
+          <t>1993/04/01</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -6124,39 +6124,39 @@
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57">
-        <f>CIQ("TSE:"&amp;F5531, "IQ_LASTSALEPRICE", G5531)</f>
+        <f>CIQ("TSE:"&amp;F57, "IQ_LASTSALEPRICE", G57)</f>
         <v/>
       </c>
       <c r="P57">
-        <f>CIQ("TSE:"&amp;F5531, "IQ_LASTSALEPRICE", G5531)</f>
+        <f>CIQ("TSE:"&amp;F57, "IQ_LASTSALEPRICE", G57)</f>
         <v/>
       </c>
       <c r="Q57">
-        <f>CIQ("TSE:"&amp;F5531, "IQ_OPER_INC", IQ_LTM, G5531)</f>
+        <f>CIQ("TSE:"&amp;F57, "IQ_OPER_INC", IQ_LTM, G57)</f>
         <v/>
       </c>
       <c r="R57">
-        <f>CIQ("TSE:"&amp;F5531, "IQ_OPER_INC", IQ_LTM, G5531)</f>
+        <f>CIQ("TSE:"&amp;F57, "IQ_OPER_INC", IQ_LTM, G57)</f>
         <v/>
       </c>
       <c r="S57">
-        <f>CIQ("TSE:"&amp;F5531, "IQ_BASIC_EPS_INCL", IQ_LTM, G5531)</f>
+        <f>CIQ("TSE:"&amp;F57, "IQ_BASIC_EPS_INCL", IQ_LTM, G57)</f>
         <v/>
       </c>
       <c r="T57">
-        <f>CIQ("TSE:"&amp;F5531, "IQ_BASIC_EPS_INCL", IQ_LTM, G5531)</f>
+        <f>CIQ("TSE:"&amp;F57, "IQ_BASIC_EPS_INCL", IQ_LTM, G57)</f>
         <v/>
       </c>
       <c r="U57">
-        <f>(G5531-F5531)/365</f>
+        <f>(G57-F57)/365</f>
         <v/>
       </c>
       <c r="V57">
-        <f>(Q5531/P5531)^(1/T5531)-1</f>
+        <f>(Q57/P57)^(1/T57)-1</f>
         <v/>
       </c>
       <c r="W57">
-        <f>(S5531/R5531)^(1/T5531)-1</f>
+        <f>(S57/R57)^(1/T57)-1</f>
         <v/>
       </c>
       <c r="X57" t="inlineStr"/>
@@ -6189,12 +6189,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1990/04</t>
+          <t>1990/04/01</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -6227,39 +6227,39 @@
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58">
-        <f>CIQ("TSE:"&amp;F5539, "IQ_LASTSALEPRICE", G5539)</f>
+        <f>CIQ("TSE:"&amp;F58, "IQ_LASTSALEPRICE", G58)</f>
         <v/>
       </c>
       <c r="P58">
-        <f>CIQ("TSE:"&amp;F5539, "IQ_LASTSALEPRICE", G5539)</f>
+        <f>CIQ("TSE:"&amp;F58, "IQ_LASTSALEPRICE", G58)</f>
         <v/>
       </c>
       <c r="Q58">
-        <f>CIQ("TSE:"&amp;F5539, "IQ_OPER_INC", IQ_LTM, G5539)</f>
+        <f>CIQ("TSE:"&amp;F58, "IQ_OPER_INC", IQ_LTM, G58)</f>
         <v/>
       </c>
       <c r="R58">
-        <f>CIQ("TSE:"&amp;F5539, "IQ_OPER_INC", IQ_LTM, G5539)</f>
+        <f>CIQ("TSE:"&amp;F58, "IQ_OPER_INC", IQ_LTM, G58)</f>
         <v/>
       </c>
       <c r="S58">
-        <f>CIQ("TSE:"&amp;F5539, "IQ_BASIC_EPS_INCL", IQ_LTM, G5539)</f>
+        <f>CIQ("TSE:"&amp;F58, "IQ_BASIC_EPS_INCL", IQ_LTM, G58)</f>
         <v/>
       </c>
       <c r="T58">
-        <f>CIQ("TSE:"&amp;F5539, "IQ_BASIC_EPS_INCL", IQ_LTM, G5539)</f>
+        <f>CIQ("TSE:"&amp;F58, "IQ_BASIC_EPS_INCL", IQ_LTM, G58)</f>
         <v/>
       </c>
       <c r="U58">
-        <f>(G5539-F5539)/365</f>
+        <f>(G58-F58)/365</f>
         <v/>
       </c>
       <c r="V58">
-        <f>(Q5539/P5539)^(1/T5539)-1</f>
+        <f>(Q58/P58)^(1/T58)-1</f>
         <v/>
       </c>
       <c r="W58">
-        <f>(S5539/R5539)^(1/T5539)-1</f>
+        <f>(S58/R58)^(1/T58)-1</f>
         <v/>
       </c>
       <c r="X58" t="inlineStr"/>
@@ -6292,12 +6292,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021/04</t>
+          <t>2021/04/01</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -6326,39 +6326,39 @@
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59">
-        <f>CIQ("TSE:"&amp;F5611, "IQ_LASTSALEPRICE", G5611)</f>
+        <f>CIQ("TSE:"&amp;F59, "IQ_LASTSALEPRICE", G59)</f>
         <v/>
       </c>
       <c r="P59">
-        <f>CIQ("TSE:"&amp;F5611, "IQ_LASTSALEPRICE", G5611)</f>
+        <f>CIQ("TSE:"&amp;F59, "IQ_LASTSALEPRICE", G59)</f>
         <v/>
       </c>
       <c r="Q59">
-        <f>CIQ("TSE:"&amp;F5611, "IQ_OPER_INC", IQ_LTM, G5611)</f>
+        <f>CIQ("TSE:"&amp;F59, "IQ_OPER_INC", IQ_LTM, G59)</f>
         <v/>
       </c>
       <c r="R59">
-        <f>CIQ("TSE:"&amp;F5611, "IQ_OPER_INC", IQ_LTM, G5611)</f>
+        <f>CIQ("TSE:"&amp;F59, "IQ_OPER_INC", IQ_LTM, G59)</f>
         <v/>
       </c>
       <c r="S59">
-        <f>CIQ("TSE:"&amp;F5611, "IQ_BASIC_EPS_INCL", IQ_LTM, G5611)</f>
+        <f>CIQ("TSE:"&amp;F59, "IQ_BASIC_EPS_INCL", IQ_LTM, G59)</f>
         <v/>
       </c>
       <c r="T59">
-        <f>CIQ("TSE:"&amp;F5611, "IQ_BASIC_EPS_INCL", IQ_LTM, G5611)</f>
+        <f>CIQ("TSE:"&amp;F59, "IQ_BASIC_EPS_INCL", IQ_LTM, G59)</f>
         <v/>
       </c>
       <c r="U59">
-        <f>(G5611-F5611)/365</f>
+        <f>(G59-F59)/365</f>
         <v/>
       </c>
       <c r="V59">
-        <f>(Q5611/P5611)^(1/T5611)-1</f>
+        <f>(Q59/P59)^(1/T59)-1</f>
         <v/>
       </c>
       <c r="W59">
-        <f>(S5611/R5611)^(1/T5611)-1</f>
+        <f>(S59/R59)^(1/T59)-1</f>
         <v/>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -6391,12 +6391,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2022/04</t>
+          <t>2022/04/01</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -6425,39 +6425,39 @@
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60">
-        <f>CIQ("TSE:"&amp;F5756, "IQ_LASTSALEPRICE", G5756)</f>
+        <f>CIQ("TSE:"&amp;F60, "IQ_LASTSALEPRICE", G60)</f>
         <v/>
       </c>
       <c r="P60">
-        <f>CIQ("TSE:"&amp;F5756, "IQ_LASTSALEPRICE", G5756)</f>
+        <f>CIQ("TSE:"&amp;F60, "IQ_LASTSALEPRICE", G60)</f>
         <v/>
       </c>
       <c r="Q60">
-        <f>CIQ("TSE:"&amp;F5756, "IQ_OPER_INC", IQ_LTM, G5756)</f>
+        <f>CIQ("TSE:"&amp;F60, "IQ_OPER_INC", IQ_LTM, G60)</f>
         <v/>
       </c>
       <c r="R60">
-        <f>CIQ("TSE:"&amp;F5756, "IQ_OPER_INC", IQ_LTM, G5756)</f>
+        <f>CIQ("TSE:"&amp;F60, "IQ_OPER_INC", IQ_LTM, G60)</f>
         <v/>
       </c>
       <c r="S60">
-        <f>CIQ("TSE:"&amp;F5756, "IQ_BASIC_EPS_INCL", IQ_LTM, G5756)</f>
+        <f>CIQ("TSE:"&amp;F60, "IQ_BASIC_EPS_INCL", IQ_LTM, G60)</f>
         <v/>
       </c>
       <c r="T60">
-        <f>CIQ("TSE:"&amp;F5756, "IQ_BASIC_EPS_INCL", IQ_LTM, G5756)</f>
+        <f>CIQ("TSE:"&amp;F60, "IQ_BASIC_EPS_INCL", IQ_LTM, G60)</f>
         <v/>
       </c>
       <c r="U60">
-        <f>(G5756-F5756)/365</f>
+        <f>(G60-F60)/365</f>
         <v/>
       </c>
       <c r="V60">
-        <f>(Q5756/P5756)^(1/T5756)-1</f>
+        <f>(Q60/P60)^(1/T60)-1</f>
         <v/>
       </c>
       <c r="W60">
-        <f>(S5756/R5756)^(1/T5756)-1</f>
+        <f>(S60/R60)^(1/T60)-1</f>
         <v/>
       </c>
       <c r="X60" t="inlineStr"/>
@@ -6490,12 +6490,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2020/04</t>
+          <t>2020/04/01</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2024/05</t>
+          <t>2024/05/01</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -6524,39 +6524,39 @@
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61">
-        <f>CIQ("TSE:"&amp;F5762, "IQ_LASTSALEPRICE", G5762)</f>
+        <f>CIQ("TSE:"&amp;F61, "IQ_LASTSALEPRICE", G61)</f>
         <v/>
       </c>
       <c r="P61">
-        <f>CIQ("TSE:"&amp;F5762, "IQ_LASTSALEPRICE", G5762)</f>
+        <f>CIQ("TSE:"&amp;F61, "IQ_LASTSALEPRICE", G61)</f>
         <v/>
       </c>
       <c r="Q61">
-        <f>CIQ("TSE:"&amp;F5762, "IQ_OPER_INC", IQ_LTM, G5762)</f>
+        <f>CIQ("TSE:"&amp;F61, "IQ_OPER_INC", IQ_LTM, G61)</f>
         <v/>
       </c>
       <c r="R61">
-        <f>CIQ("TSE:"&amp;F5762, "IQ_OPER_INC", IQ_LTM, G5762)</f>
+        <f>CIQ("TSE:"&amp;F61, "IQ_OPER_INC", IQ_LTM, G61)</f>
         <v/>
       </c>
       <c r="S61">
-        <f>CIQ("TSE:"&amp;F5762, "IQ_BASIC_EPS_INCL", IQ_LTM, G5762)</f>
+        <f>CIQ("TSE:"&amp;F61, "IQ_BASIC_EPS_INCL", IQ_LTM, G61)</f>
         <v/>
       </c>
       <c r="T61">
-        <f>CIQ("TSE:"&amp;F5762, "IQ_BASIC_EPS_INCL", IQ_LTM, G5762)</f>
+        <f>CIQ("TSE:"&amp;F61, "IQ_BASIC_EPS_INCL", IQ_LTM, G61)</f>
         <v/>
       </c>
       <c r="U61">
-        <f>(G5762-F5762)/365</f>
+        <f>(G61-F61)/365</f>
         <v/>
       </c>
       <c r="V61">
-        <f>(Q5762/P5762)^(1/T5762)-1</f>
+        <f>(Q61/P61)^(1/T61)-1</f>
         <v/>
       </c>
       <c r="W61">
-        <f>(S5762/R5762)^(1/T5762)-1</f>
+        <f>(S61/R61)^(1/T61)-1</f>
         <v/>
       </c>
       <c r="X61" t="inlineStr"/>
@@ -6589,12 +6589,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022/06</t>
+          <t>2022/06/01</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2024/03</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -6623,39 +6623,39 @@
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62">
-        <f>CIQ("TSE:"&amp;F5987, "IQ_LASTSALEPRICE", G5987)</f>
+        <f>CIQ("TSE:"&amp;F62, "IQ_LASTSALEPRICE", G62)</f>
         <v/>
       </c>
       <c r="P62">
-        <f>CIQ("TSE:"&amp;F5987, "IQ_LASTSALEPRICE", G5987)</f>
+        <f>CIQ("TSE:"&amp;F62, "IQ_LASTSALEPRICE", G62)</f>
         <v/>
       </c>
       <c r="Q62">
-        <f>CIQ("TSE:"&amp;F5987, "IQ_OPER_INC", IQ_LTM, G5987)</f>
+        <f>CIQ("TSE:"&amp;F62, "IQ_OPER_INC", IQ_LTM, G62)</f>
         <v/>
       </c>
       <c r="R62">
-        <f>CIQ("TSE:"&amp;F5987, "IQ_OPER_INC", IQ_LTM, G5987)</f>
+        <f>CIQ("TSE:"&amp;F62, "IQ_OPER_INC", IQ_LTM, G62)</f>
         <v/>
       </c>
       <c r="S62">
-        <f>CIQ("TSE:"&amp;F5987, "IQ_BASIC_EPS_INCL", IQ_LTM, G5987)</f>
+        <f>CIQ("TSE:"&amp;F62, "IQ_BASIC_EPS_INCL", IQ_LTM, G62)</f>
         <v/>
       </c>
       <c r="T62">
-        <f>CIQ("TSE:"&amp;F5987, "IQ_BASIC_EPS_INCL", IQ_LTM, G5987)</f>
+        <f>CIQ("TSE:"&amp;F62, "IQ_BASIC_EPS_INCL", IQ_LTM, G62)</f>
         <v/>
       </c>
       <c r="U62">
-        <f>(G5987-F5987)/365</f>
+        <f>(G62-F62)/365</f>
         <v/>
       </c>
       <c r="V62">
-        <f>(Q5987/P5987)^(1/T5987)-1</f>
+        <f>(Q62/P62)^(1/T62)-1</f>
         <v/>
       </c>
       <c r="W62">
-        <f>(S5987/R5987)^(1/T5987)-1</f>
+        <f>(S62/R62)^(1/T62)-1</f>
         <v/>
       </c>
       <c r="X62" t="inlineStr"/>
@@ -6688,12 +6688,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021/04</t>
+          <t>2021/04/01</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2024/05</t>
+          <t>2024/05/01</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -6722,39 +6722,39 @@
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63">
-        <f>CIQ("TSE:"&amp;F6016, "IQ_LASTSALEPRICE", G6016)</f>
+        <f>CIQ("TSE:"&amp;F63, "IQ_LASTSALEPRICE", G63)</f>
         <v/>
       </c>
       <c r="P63">
-        <f>CIQ("TSE:"&amp;F6016, "IQ_LASTSALEPRICE", G6016)</f>
+        <f>CIQ("TSE:"&amp;F63, "IQ_LASTSALEPRICE", G63)</f>
         <v/>
       </c>
       <c r="Q63">
-        <f>CIQ("TSE:"&amp;F6016, "IQ_OPER_INC", IQ_LTM, G6016)</f>
+        <f>CIQ("TSE:"&amp;F63, "IQ_OPER_INC", IQ_LTM, G63)</f>
         <v/>
       </c>
       <c r="R63">
-        <f>CIQ("TSE:"&amp;F6016, "IQ_OPER_INC", IQ_LTM, G6016)</f>
+        <f>CIQ("TSE:"&amp;F63, "IQ_OPER_INC", IQ_LTM, G63)</f>
         <v/>
       </c>
       <c r="S63">
-        <f>CIQ("TSE:"&amp;F6016, "IQ_BASIC_EPS_INCL", IQ_LTM, G6016)</f>
+        <f>CIQ("TSE:"&amp;F63, "IQ_BASIC_EPS_INCL", IQ_LTM, G63)</f>
         <v/>
       </c>
       <c r="T63">
-        <f>CIQ("TSE:"&amp;F6016, "IQ_BASIC_EPS_INCL", IQ_LTM, G6016)</f>
+        <f>CIQ("TSE:"&amp;F63, "IQ_BASIC_EPS_INCL", IQ_LTM, G63)</f>
         <v/>
       </c>
       <c r="U63">
-        <f>(G6016-F6016)/365</f>
+        <f>(G63-F63)/365</f>
         <v/>
       </c>
       <c r="V63">
-        <f>(Q6016/P6016)^(1/T6016)-1</f>
+        <f>(Q63/P63)^(1/T63)-1</f>
         <v/>
       </c>
       <c r="W63">
-        <f>(S6016/R6016)^(1/T6016)-1</f>
+        <f>(S63/R63)^(1/T63)-1</f>
         <v/>
       </c>
       <c r="X63" t="inlineStr"/>
@@ -6787,12 +6787,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2015/08</t>
+          <t>2015/08/01</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -6821,39 +6821,39 @@
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64">
-        <f>CIQ("TSE:"&amp;F6024, "IQ_LASTSALEPRICE", G6024)</f>
+        <f>CIQ("TSE:"&amp;F64, "IQ_LASTSALEPRICE", G64)</f>
         <v/>
       </c>
       <c r="P64">
-        <f>CIQ("TSE:"&amp;F6024, "IQ_LASTSALEPRICE", G6024)</f>
+        <f>CIQ("TSE:"&amp;F64, "IQ_LASTSALEPRICE", G64)</f>
         <v/>
       </c>
       <c r="Q64">
-        <f>CIQ("TSE:"&amp;F6024, "IQ_OPER_INC", IQ_LTM, G6024)</f>
+        <f>CIQ("TSE:"&amp;F64, "IQ_OPER_INC", IQ_LTM, G64)</f>
         <v/>
       </c>
       <c r="R64">
-        <f>CIQ("TSE:"&amp;F6024, "IQ_OPER_INC", IQ_LTM, G6024)</f>
+        <f>CIQ("TSE:"&amp;F64, "IQ_OPER_INC", IQ_LTM, G64)</f>
         <v/>
       </c>
       <c r="S64">
-        <f>CIQ("TSE:"&amp;F6024, "IQ_BASIC_EPS_INCL", IQ_LTM, G6024)</f>
+        <f>CIQ("TSE:"&amp;F64, "IQ_BASIC_EPS_INCL", IQ_LTM, G64)</f>
         <v/>
       </c>
       <c r="T64">
-        <f>CIQ("TSE:"&amp;F6024, "IQ_BASIC_EPS_INCL", IQ_LTM, G6024)</f>
+        <f>CIQ("TSE:"&amp;F64, "IQ_BASIC_EPS_INCL", IQ_LTM, G64)</f>
         <v/>
       </c>
       <c r="U64">
-        <f>(G6024-F6024)/365</f>
+        <f>(G64-F64)/365</f>
         <v/>
       </c>
       <c r="V64">
-        <f>(Q6024/P6024)^(1/T6024)-1</f>
+        <f>(Q64/P64)^(1/T64)-1</f>
         <v/>
       </c>
       <c r="W64">
-        <f>(S6024/R6024)^(1/T6024)-1</f>
+        <f>(S64/R64)^(1/T64)-1</f>
         <v/>
       </c>
       <c r="X64" t="inlineStr"/>
@@ -6886,12 +6886,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2017/09</t>
+          <t>2017/09/01</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -6920,39 +6920,39 @@
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65">
-        <f>CIQ("TSE:"&amp;F6182, "IQ_LASTSALEPRICE", G6182)</f>
+        <f>CIQ("TSE:"&amp;F65, "IQ_LASTSALEPRICE", G65)</f>
         <v/>
       </c>
       <c r="P65">
-        <f>CIQ("TSE:"&amp;F6182, "IQ_LASTSALEPRICE", G6182)</f>
+        <f>CIQ("TSE:"&amp;F65, "IQ_LASTSALEPRICE", G65)</f>
         <v/>
       </c>
       <c r="Q65">
-        <f>CIQ("TSE:"&amp;F6182, "IQ_OPER_INC", IQ_LTM, G6182)</f>
+        <f>CIQ("TSE:"&amp;F65, "IQ_OPER_INC", IQ_LTM, G65)</f>
         <v/>
       </c>
       <c r="R65">
-        <f>CIQ("TSE:"&amp;F6182, "IQ_OPER_INC", IQ_LTM, G6182)</f>
+        <f>CIQ("TSE:"&amp;F65, "IQ_OPER_INC", IQ_LTM, G65)</f>
         <v/>
       </c>
       <c r="S65">
-        <f>CIQ("TSE:"&amp;F6182, "IQ_BASIC_EPS_INCL", IQ_LTM, G6182)</f>
+        <f>CIQ("TSE:"&amp;F65, "IQ_BASIC_EPS_INCL", IQ_LTM, G65)</f>
         <v/>
       </c>
       <c r="T65">
-        <f>CIQ("TSE:"&amp;F6182, "IQ_BASIC_EPS_INCL", IQ_LTM, G6182)</f>
+        <f>CIQ("TSE:"&amp;F65, "IQ_BASIC_EPS_INCL", IQ_LTM, G65)</f>
         <v/>
       </c>
       <c r="U65">
-        <f>(G6182-F6182)/365</f>
+        <f>(G65-F65)/365</f>
         <v/>
       </c>
       <c r="V65">
-        <f>(Q6182/P6182)^(1/T6182)-1</f>
+        <f>(Q65/P65)^(1/T65)-1</f>
         <v/>
       </c>
       <c r="W65">
-        <f>(S6182/R6182)^(1/T6182)-1</f>
+        <f>(S65/R65)^(1/T65)-1</f>
         <v/>
       </c>
       <c r="X65" t="inlineStr"/>
@@ -6985,12 +6985,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2018/05</t>
+          <t>2018/05/01</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2024/03</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -7019,39 +7019,39 @@
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66">
-        <f>CIQ("TSE:"&amp;F6329, "IQ_LASTSALEPRICE", G6329)</f>
+        <f>CIQ("TSE:"&amp;F66, "IQ_LASTSALEPRICE", G66)</f>
         <v/>
       </c>
       <c r="P66">
-        <f>CIQ("TSE:"&amp;F6329, "IQ_LASTSALEPRICE", G6329)</f>
+        <f>CIQ("TSE:"&amp;F66, "IQ_LASTSALEPRICE", G66)</f>
         <v/>
       </c>
       <c r="Q66">
-        <f>CIQ("TSE:"&amp;F6329, "IQ_OPER_INC", IQ_LTM, G6329)</f>
+        <f>CIQ("TSE:"&amp;F66, "IQ_OPER_INC", IQ_LTM, G66)</f>
         <v/>
       </c>
       <c r="R66">
-        <f>CIQ("TSE:"&amp;F6329, "IQ_OPER_INC", IQ_LTM, G6329)</f>
+        <f>CIQ("TSE:"&amp;F66, "IQ_OPER_INC", IQ_LTM, G66)</f>
         <v/>
       </c>
       <c r="S66">
-        <f>CIQ("TSE:"&amp;F6329, "IQ_BASIC_EPS_INCL", IQ_LTM, G6329)</f>
+        <f>CIQ("TSE:"&amp;F66, "IQ_BASIC_EPS_INCL", IQ_LTM, G66)</f>
         <v/>
       </c>
       <c r="T66">
-        <f>CIQ("TSE:"&amp;F6329, "IQ_BASIC_EPS_INCL", IQ_LTM, G6329)</f>
+        <f>CIQ("TSE:"&amp;F66, "IQ_BASIC_EPS_INCL", IQ_LTM, G66)</f>
         <v/>
       </c>
       <c r="U66">
-        <f>(G6329-F6329)/365</f>
+        <f>(G66-F66)/365</f>
         <v/>
       </c>
       <c r="V66">
-        <f>(Q6329/P6329)^(1/T6329)-1</f>
+        <f>(Q66/P66)^(1/T66)-1</f>
         <v/>
       </c>
       <c r="W66">
-        <f>(S6329/R6329)^(1/T6329)-1</f>
+        <f>(S66/R66)^(1/T66)-1</f>
         <v/>
       </c>
       <c r="X66" t="inlineStr"/>
@@ -7084,12 +7084,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2024/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2024/06</t>
+          <t>2024/06/01</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -7118,39 +7118,39 @@
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67">
-        <f>CIQ("TSE:"&amp;F6817, "IQ_LASTSALEPRICE", G6817)</f>
+        <f>CIQ("TSE:"&amp;F67, "IQ_LASTSALEPRICE", G67)</f>
         <v/>
       </c>
       <c r="P67">
-        <f>CIQ("TSE:"&amp;F6817, "IQ_LASTSALEPRICE", G6817)</f>
+        <f>CIQ("TSE:"&amp;F67, "IQ_LASTSALEPRICE", G67)</f>
         <v/>
       </c>
       <c r="Q67">
-        <f>CIQ("TSE:"&amp;F6817, "IQ_OPER_INC", IQ_LTM, G6817)</f>
+        <f>CIQ("TSE:"&amp;F67, "IQ_OPER_INC", IQ_LTM, G67)</f>
         <v/>
       </c>
       <c r="R67">
-        <f>CIQ("TSE:"&amp;F6817, "IQ_OPER_INC", IQ_LTM, G6817)</f>
+        <f>CIQ("TSE:"&amp;F67, "IQ_OPER_INC", IQ_LTM, G67)</f>
         <v/>
       </c>
       <c r="S67">
-        <f>CIQ("TSE:"&amp;F6817, "IQ_BASIC_EPS_INCL", IQ_LTM, G6817)</f>
+        <f>CIQ("TSE:"&amp;F67, "IQ_BASIC_EPS_INCL", IQ_LTM, G67)</f>
         <v/>
       </c>
       <c r="T67">
-        <f>CIQ("TSE:"&amp;F6817, "IQ_BASIC_EPS_INCL", IQ_LTM, G6817)</f>
+        <f>CIQ("TSE:"&amp;F67, "IQ_BASIC_EPS_INCL", IQ_LTM, G67)</f>
         <v/>
       </c>
       <c r="U67">
-        <f>(G6817-F6817)/365</f>
+        <f>(G67-F67)/365</f>
         <v/>
       </c>
       <c r="V67">
-        <f>(Q6817/P6817)^(1/T6817)-1</f>
+        <f>(Q67/P67)^(1/T67)-1</f>
         <v/>
       </c>
       <c r="W67">
-        <f>(S6817/R6817)^(1/T6817)-1</f>
+        <f>(S67/R67)^(1/T67)-1</f>
         <v/>
       </c>
       <c r="X67" t="inlineStr"/>
